--- a/Sayad/1403-11-18.xlsx
+++ b/Sayad/1403-11-18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000_projects\exel_010\Sayad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898D0CF-1C11-439D-BAE8-C8DA5DAA34E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A4880-108E-49B6-97A9-4EEAC3C374C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5528,6 +5528,9 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5536,9 +5539,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5939,7 +5939,7 @@
   <dimension ref="A1:O2123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" zoomScalePageLayoutView="68" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15" customHeight="1" thickBottom="1" x14ac:dyDescent="0.5"/>
@@ -6032,7 +6032,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="212" t="s">
         <v>1360</v>
       </c>
@@ -9826,7 +9826,7 @@
       <c r="K116" s="8"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="212" t="s">
         <v>971</v>
       </c>
@@ -14736,7 +14736,7 @@
       <c r="K265" s="7"/>
       <c r="L265" s="1"/>
     </row>
-    <row r="266" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="212" t="s">
         <v>897</v>
       </c>
@@ -15270,7 +15270,7 @@
       <c r="K282" s="7"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="212" t="s">
         <v>959</v>
       </c>
@@ -15334,7 +15334,7 @@
       <c r="K284" s="7"/>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="212" t="s">
         <v>891</v>
       </c>
@@ -16932,7 +16932,7 @@
       <c r="K333" s="7"/>
       <c r="L333" s="1"/>
     </row>
-    <row r="334" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="212" t="s">
         <v>891</v>
       </c>
@@ -16962,7 +16962,7 @@
       <c r="K334" s="7"/>
       <c r="L334" s="1"/>
     </row>
-    <row r="335" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="212" t="s">
         <v>891</v>
       </c>
@@ -16992,7 +16992,7 @@
       <c r="K335" s="7"/>
       <c r="L335" s="1"/>
     </row>
-    <row r="336" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="212" t="s">
         <v>932</v>
       </c>
@@ -17026,7 +17026,7 @@
       <c r="K336" s="7"/>
       <c r="L336" s="1"/>
     </row>
-    <row r="337" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="212" t="s">
         <v>895</v>
       </c>
@@ -17056,7 +17056,7 @@
       <c r="K337" s="7"/>
       <c r="L337" s="1"/>
     </row>
-    <row r="338" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="212" t="s">
         <v>895</v>
       </c>
@@ -17086,7 +17086,7 @@
       <c r="K338" s="7"/>
       <c r="L338" s="1"/>
     </row>
-    <row r="339" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="212" t="s">
         <v>964</v>
       </c>
@@ -17120,7 +17120,7 @@
       <c r="K339" s="7"/>
       <c r="L339" s="1"/>
     </row>
-    <row r="340" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="212" t="s">
         <v>964</v>
       </c>
@@ -17150,7 +17150,7 @@
       <c r="K340" s="7"/>
       <c r="L340" s="1"/>
     </row>
-    <row r="341" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="212" t="s">
         <v>964</v>
       </c>
@@ -17180,7 +17180,7 @@
       <c r="K341" s="7"/>
       <c r="L341" s="1"/>
     </row>
-    <row r="342" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="212" t="s">
         <v>964</v>
       </c>
@@ -17210,7 +17210,7 @@
       <c r="K342" s="7"/>
       <c r="L342" s="1"/>
     </row>
-    <row r="343" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="212" t="s">
         <v>950</v>
       </c>
@@ -17244,7 +17244,7 @@
       <c r="K343" s="8"/>
       <c r="L343" s="1"/>
     </row>
-    <row r="344" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="212"/>
       <c r="B344" s="68"/>
       <c r="C344" s="56">
@@ -17270,7 +17270,7 @@
       <c r="K344" s="7"/>
       <c r="L344" s="1"/>
     </row>
-    <row r="345" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="212" t="s">
         <v>954</v>
       </c>
@@ -17304,7 +17304,7 @@
       <c r="K345" s="7"/>
       <c r="L345" s="1"/>
     </row>
-    <row r="346" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="212" t="s">
         <v>954</v>
       </c>
@@ -17338,7 +17338,7 @@
       <c r="K346" s="7"/>
       <c r="L346" s="1"/>
     </row>
-    <row r="347" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="212" t="s">
         <v>954</v>
       </c>
@@ -17372,7 +17372,7 @@
       <c r="K347" s="7"/>
       <c r="L347" s="1"/>
     </row>
-    <row r="348" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="212" t="s">
         <v>954</v>
       </c>
@@ -17402,7 +17402,7 @@
       <c r="K348" s="7"/>
       <c r="L348" s="1"/>
     </row>
-    <row r="349" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="212" t="s">
         <v>954</v>
       </c>
@@ -17432,7 +17432,7 @@
       <c r="K349" s="7"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="212" t="s">
         <v>954</v>
       </c>
@@ -17466,7 +17466,7 @@
       <c r="K350" s="7"/>
       <c r="L350" s="1"/>
     </row>
-    <row r="351" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="212" t="s">
         <v>942</v>
       </c>
@@ -17496,7 +17496,7 @@
       <c r="K351" s="7"/>
       <c r="L351" s="1"/>
     </row>
-    <row r="352" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="212" t="s">
         <v>942</v>
       </c>
@@ -17526,7 +17526,7 @@
       <c r="K352" s="7"/>
       <c r="L352" s="1"/>
     </row>
-    <row r="353" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="212" t="s">
         <v>942</v>
       </c>
@@ -17560,7 +17560,7 @@
       <c r="K353" s="7"/>
       <c r="L353" s="1"/>
     </row>
-    <row r="354" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="212" t="s">
         <v>942</v>
       </c>
@@ -17590,7 +17590,7 @@
       <c r="K354" s="7"/>
       <c r="L354" s="1"/>
     </row>
-    <row r="355" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="212" t="s">
         <v>939</v>
       </c>
@@ -17624,7 +17624,7 @@
       <c r="K355" s="7"/>
       <c r="L355" s="1"/>
     </row>
-    <row r="356" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="212" t="s">
         <v>939</v>
       </c>
@@ -17658,7 +17658,7 @@
       <c r="K356" s="7"/>
       <c r="L356" s="1"/>
     </row>
-    <row r="357" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="212" t="s">
         <v>939</v>
       </c>
@@ -17692,7 +17692,7 @@
       <c r="K357" s="7"/>
       <c r="L357" s="1"/>
     </row>
-    <row r="358" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="212" t="s">
         <v>939</v>
       </c>
@@ -17726,7 +17726,7 @@
       <c r="K358" s="7"/>
       <c r="L358" s="1"/>
     </row>
-    <row r="359" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="212" t="s">
         <v>939</v>
       </c>
@@ -17760,7 +17760,7 @@
       <c r="K359" s="7"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="212" t="s">
         <v>939</v>
       </c>
@@ -17794,7 +17794,7 @@
       <c r="K360" s="7"/>
       <c r="L360" s="1"/>
     </row>
-    <row r="361" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="212" t="s">
         <v>939</v>
       </c>
@@ -17828,7 +17828,7 @@
       <c r="K361" s="7"/>
       <c r="L361" s="1"/>
     </row>
-    <row r="362" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="212" t="s">
         <v>939</v>
       </c>
@@ -17862,7 +17862,7 @@
       <c r="K362" s="7"/>
       <c r="L362" s="1"/>
     </row>
-    <row r="363" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="212" t="s">
         <v>939</v>
       </c>
@@ -17896,7 +17896,7 @@
       <c r="K363" s="7"/>
       <c r="L363" s="1"/>
     </row>
-    <row r="364" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="212" t="s">
         <v>939</v>
       </c>
@@ -17930,7 +17930,7 @@
       <c r="K364" s="7"/>
       <c r="L364" s="1"/>
     </row>
-    <row r="365" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="212" t="s">
         <v>939</v>
       </c>
@@ -17964,7 +17964,7 @@
       <c r="K365" s="7"/>
       <c r="L365" s="1"/>
     </row>
-    <row r="366" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="212" t="s">
         <v>900</v>
       </c>
@@ -17998,7 +17998,7 @@
       <c r="K366" s="7"/>
       <c r="L366" s="1"/>
     </row>
-    <row r="367" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="212" t="s">
         <v>900</v>
       </c>
@@ -18032,7 +18032,7 @@
       <c r="K367" s="7"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="212" t="s">
         <v>956</v>
       </c>
@@ -18062,7 +18062,7 @@
       <c r="K368" s="7"/>
       <c r="L368" s="1"/>
     </row>
-    <row r="369" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="212" t="s">
         <v>956</v>
       </c>
@@ -18096,7 +18096,7 @@
       <c r="K369" s="7"/>
       <c r="L369" s="1"/>
     </row>
-    <row r="370" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" s="212" t="s">
         <v>956</v>
       </c>
@@ -18126,7 +18126,7 @@
       <c r="K370" s="7"/>
       <c r="L370" s="1"/>
     </row>
-    <row r="371" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" s="212" t="s">
         <v>900</v>
       </c>
@@ -18160,7 +18160,7 @@
       <c r="K371" s="7"/>
       <c r="L371" s="1"/>
     </row>
-    <row r="372" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" s="212" t="s">
         <v>944</v>
       </c>
@@ -18190,7 +18190,7 @@
       <c r="K372" s="7"/>
       <c r="L372" s="1"/>
     </row>
-    <row r="373" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="212" t="s">
         <v>968</v>
       </c>
@@ -18220,7 +18220,7 @@
       <c r="K373" s="7"/>
       <c r="L373" s="1"/>
     </row>
-    <row r="374" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="212" t="s">
         <v>968</v>
       </c>
@@ -18254,7 +18254,7 @@
       <c r="K374" s="7"/>
       <c r="L374" s="1"/>
     </row>
-    <row r="375" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" s="212" t="s">
         <v>968</v>
       </c>
@@ -18284,7 +18284,7 @@
       <c r="K375" s="7"/>
       <c r="L375" s="1"/>
     </row>
-    <row r="376" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" s="212" t="s">
         <v>968</v>
       </c>
@@ -18318,7 +18318,7 @@
       <c r="K376" s="7"/>
       <c r="L376" s="1"/>
     </row>
-    <row r="377" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" s="212" t="s">
         <v>968</v>
       </c>
@@ -18348,7 +18348,7 @@
       <c r="K377" s="7"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" s="212" t="s">
         <v>927</v>
       </c>
@@ -18378,7 +18378,7 @@
       <c r="K378" s="7"/>
       <c r="L378" s="1"/>
     </row>
-    <row r="379" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" s="212" t="s">
         <v>963</v>
       </c>
@@ -18408,7 +18408,7 @@
       <c r="K379" s="7"/>
       <c r="L379" s="1"/>
     </row>
-    <row r="380" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" s="212" t="s">
         <v>968</v>
       </c>
@@ -18438,7 +18438,7 @@
       <c r="K380" s="7"/>
       <c r="L380" s="1"/>
     </row>
-    <row r="381" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" s="212" t="s">
         <v>968</v>
       </c>
@@ -18472,7 +18472,7 @@
       <c r="K381" s="7"/>
       <c r="L381" s="1"/>
     </row>
-    <row r="382" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="212" t="s">
         <v>876</v>
       </c>
@@ -18502,7 +18502,7 @@
       <c r="K382" s="7"/>
       <c r="L382" s="1"/>
     </row>
-    <row r="383" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="212" t="s">
         <v>876</v>
       </c>
@@ -18536,7 +18536,7 @@
       <c r="K383" s="7"/>
       <c r="L383" s="1"/>
     </row>
-    <row r="384" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="212" t="s">
         <v>876</v>
       </c>
@@ -18570,7 +18570,7 @@
       <c r="K384" s="7"/>
       <c r="L384" s="1"/>
     </row>
-    <row r="385" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="212" t="s">
         <v>876</v>
       </c>
@@ -18604,7 +18604,7 @@
       <c r="K385" s="7"/>
       <c r="L385" s="1"/>
     </row>
-    <row r="386" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" s="213" t="s">
         <v>876</v>
       </c>
@@ -18634,7 +18634,7 @@
       <c r="K386" s="3"/>
       <c r="L386" s="1"/>
     </row>
-    <row r="387" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" s="212" t="s">
         <v>876</v>
       </c>
@@ -18666,7 +18666,7 @@
       <c r="K387" s="7"/>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" s="212" t="s">
         <v>876</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="K388" s="7"/>
       <c r="L388" s="1"/>
     </row>
-    <row r="389" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" s="212" t="s">
         <v>930</v>
       </c>
@@ -18726,7 +18726,7 @@
       <c r="K389" s="7"/>
       <c r="L389" s="1"/>
     </row>
-    <row r="390" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="212" t="s">
         <v>930</v>
       </c>
@@ -18758,7 +18758,7 @@
       <c r="K390" s="7"/>
       <c r="L390" s="1"/>
     </row>
-    <row r="391" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" s="212" t="s">
         <v>930</v>
       </c>
@@ -18790,7 +18790,7 @@
       <c r="K391" s="7"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" s="212" t="s">
         <v>930</v>
       </c>
@@ -18818,7 +18818,7 @@
       <c r="K392" s="7"/>
       <c r="L392" s="1"/>
     </row>
-    <row r="393" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" s="212" t="s">
         <v>930</v>
       </c>
@@ -18846,7 +18846,7 @@
       <c r="K393" s="7"/>
       <c r="L393" s="1"/>
     </row>
-    <row r="394" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" s="212" t="s">
         <v>930</v>
       </c>
@@ -18878,7 +18878,7 @@
       <c r="K394" s="7"/>
       <c r="L394" s="1"/>
     </row>
-    <row r="395" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" s="212" t="s">
         <v>930</v>
       </c>
@@ -18910,7 +18910,7 @@
       <c r="K395" s="7"/>
       <c r="L395" s="1"/>
     </row>
-    <row r="396" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="212" t="s">
         <v>988</v>
       </c>
@@ -18938,7 +18938,7 @@
       <c r="K396" s="7"/>
       <c r="L396" s="1"/>
     </row>
-    <row r="397" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" s="212" t="s">
         <v>899</v>
       </c>
@@ -18970,7 +18970,7 @@
       <c r="K397" s="7"/>
       <c r="L397" s="1"/>
     </row>
-    <row r="398" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" s="212" t="s">
         <v>899</v>
       </c>
@@ -19002,7 +19002,7 @@
       <c r="K398" s="7"/>
       <c r="L398" s="1"/>
     </row>
-    <row r="399" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="212" t="s">
         <v>899</v>
       </c>
@@ -19030,7 +19030,7 @@
       <c r="K399" s="7"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="212" t="s">
         <v>899</v>
       </c>
@@ -19058,7 +19058,7 @@
       <c r="K400" s="7"/>
       <c r="L400" s="1"/>
     </row>
-    <row r="401" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" s="212" t="s">
         <v>899</v>
       </c>
@@ -19090,7 +19090,7 @@
       <c r="K401" s="7"/>
       <c r="L401" s="1"/>
     </row>
-    <row r="402" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" s="212" t="s">
         <v>899</v>
       </c>
@@ -19122,7 +19122,7 @@
       <c r="K402" s="7"/>
       <c r="L402" s="1"/>
     </row>
-    <row r="403" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A403" s="212" t="s">
         <v>947</v>
       </c>
@@ -19150,7 +19150,7 @@
       <c r="K403" s="7"/>
       <c r="L403" s="1"/>
     </row>
-    <row r="404" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" s="212" t="s">
         <v>884</v>
       </c>
@@ -19178,7 +19178,7 @@
       <c r="K404" s="8"/>
       <c r="L404" s="1"/>
     </row>
-    <row r="405" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" s="212" t="s">
         <v>884</v>
       </c>
@@ -19206,7 +19206,7 @@
       <c r="K405" s="8"/>
       <c r="L405" s="1"/>
     </row>
-    <row r="406" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="212" t="s">
         <v>927</v>
       </c>
@@ -19238,7 +19238,7 @@
       <c r="K406" s="7"/>
       <c r="L406" s="1"/>
     </row>
-    <row r="407" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="212" t="s">
         <v>927</v>
       </c>
@@ -19266,7 +19266,7 @@
       <c r="K407" s="7"/>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="212" t="s">
         <v>892</v>
       </c>
@@ -19298,7 +19298,7 @@
       <c r="K408" s="7"/>
       <c r="L408" s="1"/>
     </row>
-    <row r="409" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" s="212" t="s">
         <v>892</v>
       </c>
@@ -19330,7 +19330,7 @@
       <c r="K409" s="7"/>
       <c r="L409" s="1"/>
     </row>
-    <row r="410" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A410" s="212" t="s">
         <v>892</v>
       </c>
@@ -19358,7 +19358,7 @@
       <c r="K410" s="7"/>
       <c r="L410" s="1"/>
     </row>
-    <row r="411" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A411" s="212" t="s">
         <v>876</v>
       </c>
@@ -19390,7 +19390,7 @@
       <c r="K411" s="7"/>
       <c r="L411" s="1"/>
     </row>
-    <row r="412" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A412" s="212" t="s">
         <v>952</v>
       </c>
@@ -19418,7 +19418,7 @@
       <c r="K412" s="7"/>
       <c r="L412" s="1"/>
     </row>
-    <row r="413" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="212" t="s">
         <v>952</v>
       </c>
@@ -19450,7 +19450,7 @@
       <c r="K413" s="7"/>
       <c r="L413" s="1"/>
     </row>
-    <row r="414" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="212" t="s">
         <v>952</v>
       </c>
@@ -19482,7 +19482,7 @@
       <c r="K414" s="7"/>
       <c r="L414" s="1"/>
     </row>
-    <row r="415" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="212" t="s">
         <v>952</v>
       </c>
@@ -19510,7 +19510,7 @@
       <c r="K415" s="7"/>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="212" t="s">
         <v>952</v>
       </c>
@@ -19538,7 +19538,7 @@
       <c r="K416" s="7"/>
       <c r="L416" s="1"/>
     </row>
-    <row r="417" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A417" s="212" t="s">
         <v>961</v>
       </c>
@@ -19570,7 +19570,7 @@
       <c r="K417" s="7"/>
       <c r="L417" s="1"/>
     </row>
-    <row r="418" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A418" s="212" t="s">
         <v>961</v>
       </c>
@@ -19598,7 +19598,7 @@
       <c r="K418" s="7"/>
       <c r="L418" s="1"/>
     </row>
-    <row r="419" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A419" s="212" t="s">
         <v>961</v>
       </c>
@@ -19628,7 +19628,7 @@
       <c r="K419" s="7"/>
       <c r="L419" s="1"/>
     </row>
-    <row r="420" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A420" s="212" t="s">
         <v>961</v>
       </c>
@@ -19660,7 +19660,7 @@
       <c r="K420" s="7"/>
       <c r="L420" s="1"/>
     </row>
-    <row r="421" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A421" s="212" t="s">
         <v>961</v>
       </c>
@@ -19688,7 +19688,7 @@
       <c r="K421" s="7"/>
       <c r="L421" s="1"/>
     </row>
-    <row r="422" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="212" t="s">
         <v>954</v>
       </c>
@@ -19716,7 +19716,7 @@
       <c r="K422" s="8"/>
       <c r="L422" s="1"/>
     </row>
-    <row r="423" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A423" s="212" t="s">
         <v>961</v>
       </c>
@@ -19748,7 +19748,7 @@
       <c r="K423" s="7"/>
       <c r="L423" s="1"/>
     </row>
-    <row r="424" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="212" t="s">
         <v>961</v>
       </c>
@@ -19776,7 +19776,7 @@
       <c r="K424" s="7"/>
       <c r="L424" s="1"/>
     </row>
-    <row r="425" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425" s="212" t="s">
         <v>954</v>
       </c>
@@ -19808,7 +19808,7 @@
       <c r="K425" s="7"/>
       <c r="L425" s="1"/>
     </row>
-    <row r="426" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="212" t="s">
         <v>967</v>
       </c>
@@ -19840,7 +19840,7 @@
       <c r="K426" s="7"/>
       <c r="L426" s="1"/>
     </row>
-    <row r="427" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A427" s="212" t="s">
         <v>967</v>
       </c>
@@ -19868,7 +19868,7 @@
       <c r="K427" s="7"/>
       <c r="L427" s="1"/>
     </row>
-    <row r="428" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A428" s="212" t="s">
         <v>967</v>
       </c>
@@ -19900,7 +19900,7 @@
       <c r="K428" s="7"/>
       <c r="L428" s="1"/>
     </row>
-    <row r="429" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="212" t="s">
         <v>967</v>
       </c>
@@ -19932,7 +19932,7 @@
       <c r="K429" s="7"/>
       <c r="L429" s="1"/>
     </row>
-    <row r="430" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A430" s="212" t="s">
         <v>943</v>
       </c>
@@ -19960,7 +19960,7 @@
       <c r="K430" s="7"/>
       <c r="L430" s="1"/>
     </row>
-    <row r="431" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A431" s="212" t="s">
         <v>943</v>
       </c>
@@ -19988,7 +19988,7 @@
       <c r="K431" s="7"/>
       <c r="L431" s="1"/>
     </row>
-    <row r="432" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="212" t="s">
         <v>943</v>
       </c>
@@ -20020,7 +20020,7 @@
       <c r="K432" s="7"/>
       <c r="L432" s="1"/>
     </row>
-    <row r="433" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A433" s="212" t="s">
         <v>968</v>
       </c>
@@ -20052,7 +20052,7 @@
       <c r="K433" s="7"/>
       <c r="L433" s="1"/>
     </row>
-    <row r="434" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A434" s="212" t="s">
         <v>968</v>
       </c>
@@ -20084,7 +20084,7 @@
       <c r="K434" s="7"/>
       <c r="L434" s="1"/>
     </row>
-    <row r="435" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A435" s="212" t="s">
         <v>968</v>
       </c>
@@ -20116,7 +20116,7 @@
       <c r="K435" s="7"/>
       <c r="L435" s="1"/>
     </row>
-    <row r="436" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A436" s="212" t="s">
         <v>936</v>
       </c>
@@ -20148,7 +20148,7 @@
       <c r="K436" s="7"/>
       <c r="L436" s="1"/>
     </row>
-    <row r="437" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A437" s="212" t="s">
         <v>936</v>
       </c>
@@ -20180,7 +20180,7 @@
       <c r="K437" s="7"/>
       <c r="L437" s="1"/>
     </row>
-    <row r="438" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A438" s="212" t="s">
         <v>936</v>
       </c>
@@ -20208,7 +20208,7 @@
       <c r="K438" s="7"/>
       <c r="L438" s="1"/>
     </row>
-    <row r="439" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A439" s="212" t="s">
         <v>964</v>
       </c>
@@ -20240,7 +20240,7 @@
       <c r="K439" s="8"/>
       <c r="L439" s="1"/>
     </row>
-    <row r="440" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A440" s="212" t="s">
         <v>936</v>
       </c>
@@ -20272,7 +20272,7 @@
       <c r="K440" s="7"/>
       <c r="L440" s="1"/>
     </row>
-    <row r="441" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A441" s="212" t="s">
         <v>936</v>
       </c>
@@ -20304,7 +20304,7 @@
       <c r="K441" s="7"/>
       <c r="L441" s="1"/>
     </row>
-    <row r="442" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A442" s="212" t="s">
         <v>936</v>
       </c>
@@ -20336,7 +20336,7 @@
       <c r="K442" s="7"/>
       <c r="L442" s="1"/>
     </row>
-    <row r="443" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A443" s="212" t="s">
         <v>878</v>
       </c>
@@ -20364,7 +20364,7 @@
       <c r="K443" s="7"/>
       <c r="L443" s="1"/>
     </row>
-    <row r="444" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A444" s="212" t="s">
         <v>967</v>
       </c>
@@ -20392,7 +20392,7 @@
       <c r="K444" s="8"/>
       <c r="L444" s="1"/>
     </row>
-    <row r="445" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A445" s="212" t="s">
         <v>954</v>
       </c>
@@ -20420,7 +20420,7 @@
       <c r="K445" s="7"/>
       <c r="L445" s="1"/>
     </row>
-    <row r="446" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A446" s="212" t="s">
         <v>954</v>
       </c>
@@ -20448,7 +20448,7 @@
       <c r="K446" s="7"/>
       <c r="L446" s="1"/>
     </row>
-    <row r="447" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A447" s="212" t="s">
         <v>954</v>
       </c>
@@ -20480,7 +20480,7 @@
       <c r="K447" s="7"/>
       <c r="L447" s="1"/>
     </row>
-    <row r="448" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="212" t="s">
         <v>954</v>
       </c>
@@ -20508,7 +20508,7 @@
       <c r="K448" s="7"/>
       <c r="L448" s="1"/>
     </row>
-    <row r="449" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="212" t="s">
         <v>985</v>
       </c>
@@ -20536,7 +20536,7 @@
       <c r="K449" s="7"/>
       <c r="L449" s="1"/>
     </row>
-    <row r="450" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="212" t="s">
         <v>889</v>
       </c>
@@ -20564,7 +20564,7 @@
       <c r="K450" s="7"/>
       <c r="L450" s="1"/>
     </row>
-    <row r="451" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="212" t="s">
         <v>889</v>
       </c>
@@ -20592,7 +20592,7 @@
       <c r="K451" s="7"/>
       <c r="L451" s="1"/>
     </row>
-    <row r="452" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="212" t="s">
         <v>889</v>
       </c>
@@ -20624,7 +20624,7 @@
       <c r="K452" s="7"/>
       <c r="L452" s="1"/>
     </row>
-    <row r="453" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="212" t="s">
         <v>889</v>
       </c>
@@ -20656,7 +20656,7 @@
       <c r="K453" s="7"/>
       <c r="L453" s="1"/>
     </row>
-    <row r="454" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A454" s="212" t="s">
         <v>889</v>
       </c>
@@ -20688,7 +20688,7 @@
       <c r="K454" s="7"/>
       <c r="L454" s="1"/>
     </row>
-    <row r="455" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A455" s="212" t="s">
         <v>889</v>
       </c>
@@ -20720,7 +20720,7 @@
       <c r="K455" s="7"/>
       <c r="L455" s="1"/>
     </row>
-    <row r="456" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A456" s="212" t="s">
         <v>933</v>
       </c>
@@ -20748,7 +20748,7 @@
       <c r="K456" s="7"/>
       <c r="L456" s="1"/>
     </row>
-    <row r="457" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A457" s="212" t="s">
         <v>939</v>
       </c>
@@ -20776,7 +20776,7 @@
       <c r="K457" s="7"/>
       <c r="L457" s="1"/>
     </row>
-    <row r="458" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="212" t="s">
         <v>967</v>
       </c>
@@ -20808,7 +20808,7 @@
       <c r="K458" s="7"/>
       <c r="L458" s="1"/>
     </row>
-    <row r="459" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A459" s="212" t="s">
         <v>967</v>
       </c>
@@ -20836,7 +20836,7 @@
       <c r="K459" s="7"/>
       <c r="L459" s="1"/>
     </row>
-    <row r="460" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A460" s="212" t="s">
         <v>958</v>
       </c>
@@ -20864,7 +20864,7 @@
       <c r="K460" s="7"/>
       <c r="L460" s="1"/>
     </row>
-    <row r="461" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A461" s="212" t="s">
         <v>881</v>
       </c>
@@ -20892,7 +20892,7 @@
       <c r="K461" s="7"/>
       <c r="L461" s="1"/>
     </row>
-    <row r="462" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="462" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A462" s="212" t="s">
         <v>954</v>
       </c>
@@ -20924,7 +20924,7 @@
       <c r="K462" s="7"/>
       <c r="L462" s="1"/>
     </row>
-    <row r="463" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A463" s="212" t="s">
         <v>954</v>
       </c>
@@ -20952,7 +20952,7 @@
       <c r="K463" s="7"/>
       <c r="L463" s="1"/>
     </row>
-    <row r="464" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="212"/>
       <c r="B464" s="68"/>
       <c r="C464" s="56">
@@ -21010,7 +21010,7 @@
       <c r="K465" s="7"/>
       <c r="L465" s="1"/>
     </row>
-    <row r="466" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="212"/>
       <c r="B466" s="68"/>
       <c r="C466" s="56">
@@ -21034,7 +21034,7 @@
       <c r="K466" s="7"/>
       <c r="L466" s="1"/>
     </row>
-    <row r="467" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="467" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A467" s="212" t="s">
         <v>884</v>
       </c>
@@ -21062,7 +21062,7 @@
       <c r="K467" s="7"/>
       <c r="L467" s="1"/>
     </row>
-    <row r="468" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="468" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A468" s="212" t="s">
         <v>884</v>
       </c>
@@ -21090,7 +21090,7 @@
       <c r="K468" s="7"/>
       <c r="L468" s="1"/>
     </row>
-    <row r="469" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="469" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A469" s="212" t="s">
         <v>884</v>
       </c>
@@ -21122,7 +21122,7 @@
       <c r="K469" s="7"/>
       <c r="L469" s="1"/>
     </row>
-    <row r="470" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="470" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A470" s="212" t="s">
         <v>884</v>
       </c>
@@ -21150,7 +21150,7 @@
       <c r="K470" s="7"/>
       <c r="L470" s="1"/>
     </row>
-    <row r="471" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="212" t="s">
         <v>884</v>
       </c>
@@ -21178,7 +21178,7 @@
       <c r="K471" s="7"/>
       <c r="L471" s="1"/>
     </row>
-    <row r="472" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="472" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A472" s="212" t="s">
         <v>884</v>
       </c>
@@ -21206,7 +21206,7 @@
       <c r="K472" s="7"/>
       <c r="L472" s="1"/>
     </row>
-    <row r="473" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="212" t="s">
         <v>884</v>
       </c>
@@ -21234,7 +21234,7 @@
       <c r="K473" s="7"/>
       <c r="L473" s="1"/>
     </row>
-    <row r="474" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="212" t="s">
         <v>954</v>
       </c>
@@ -21262,7 +21262,7 @@
       <c r="K474" s="7"/>
       <c r="L474" s="1"/>
     </row>
-    <row r="475" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="212" t="s">
         <v>884</v>
       </c>
@@ -21290,7 +21290,7 @@
       <c r="K475" s="7"/>
       <c r="L475" s="1"/>
     </row>
-    <row r="476" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="212" t="s">
         <v>884</v>
       </c>
@@ -21322,7 +21322,7 @@
       <c r="K476" s="7"/>
       <c r="L476" s="1"/>
     </row>
-    <row r="477" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="477" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A477" s="212" t="s">
         <v>884</v>
       </c>
@@ -21354,7 +21354,7 @@
       <c r="K477" s="7"/>
       <c r="L477" s="1"/>
     </row>
-    <row r="478" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="212" t="s">
         <v>929</v>
       </c>
@@ -21386,7 +21386,7 @@
       <c r="K478" s="7"/>
       <c r="L478" s="1"/>
     </row>
-    <row r="479" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="212" t="s">
         <v>877</v>
       </c>
@@ -21414,7 +21414,7 @@
       <c r="K479" s="7"/>
       <c r="L479" s="1"/>
     </row>
-    <row r="480" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="212" t="s">
         <v>895</v>
       </c>
@@ -21442,7 +21442,7 @@
       <c r="K480" s="7"/>
       <c r="L480" s="1"/>
     </row>
-    <row r="481" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="212" t="s">
         <v>895</v>
       </c>
@@ -21472,7 +21472,7 @@
       <c r="K481" s="7"/>
       <c r="L481" s="1"/>
     </row>
-    <row r="482" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="212" t="s">
         <v>934</v>
       </c>
@@ -21504,7 +21504,7 @@
       <c r="K482" s="7"/>
       <c r="L482" s="1"/>
     </row>
-    <row r="483" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="212" t="s">
         <v>888</v>
       </c>
@@ -21532,7 +21532,7 @@
       <c r="K483" s="7"/>
       <c r="L483" s="1"/>
     </row>
-    <row r="484" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="212" t="s">
         <v>888</v>
       </c>
@@ -21564,7 +21564,7 @@
       <c r="K484" s="7"/>
       <c r="L484" s="1"/>
     </row>
-    <row r="485" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="212" t="s">
         <v>888</v>
       </c>
@@ -21596,7 +21596,7 @@
       <c r="K485" s="7"/>
       <c r="L485" s="1"/>
     </row>
-    <row r="486" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="212" t="s">
         <v>888</v>
       </c>
@@ -21624,7 +21624,7 @@
       <c r="K486" s="7"/>
       <c r="L486" s="1"/>
     </row>
-    <row r="487" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="212" t="s">
         <v>888</v>
       </c>
@@ -21652,7 +21652,7 @@
       <c r="K487" s="7"/>
       <c r="L487" s="1"/>
     </row>
-    <row r="488" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="212" t="s">
         <v>970</v>
       </c>
@@ -21684,7 +21684,7 @@
       <c r="K488" s="7"/>
       <c r="L488" s="1"/>
     </row>
-    <row r="489" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="212" t="s">
         <v>970</v>
       </c>
@@ -21712,7 +21712,7 @@
       <c r="K489" s="7"/>
       <c r="L489" s="1"/>
     </row>
-    <row r="490" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="212" t="s">
         <v>935</v>
       </c>
@@ -21744,7 +21744,7 @@
       <c r="K490" s="7"/>
       <c r="L490" s="1"/>
     </row>
-    <row r="491" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="212" t="s">
         <v>935</v>
       </c>
@@ -21772,7 +21772,7 @@
       <c r="K491" s="7"/>
       <c r="L491" s="1"/>
     </row>
-    <row r="492" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="212" t="s">
         <v>935</v>
       </c>
@@ -21800,7 +21800,7 @@
       <c r="K492" s="7"/>
       <c r="L492" s="1"/>
     </row>
-    <row r="493" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="212" t="s">
         <v>933</v>
       </c>
@@ -21823,14 +21823,14 @@
       <c r="H493" s="105">
         <v>222</v>
       </c>
-      <c r="I493" s="245" t="s">
+      <c r="I493" s="242" t="s">
         <v>1357</v>
       </c>
       <c r="J493" s="4"/>
       <c r="K493" s="7"/>
       <c r="L493" s="1"/>
     </row>
-    <row r="494" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="212" t="s">
         <v>876</v>
       </c>
@@ -21858,7 +21858,7 @@
       <c r="K494" s="7"/>
       <c r="L494" s="1"/>
     </row>
-    <row r="495" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="212" t="s">
         <v>932</v>
       </c>
@@ -21890,7 +21890,7 @@
       <c r="K495" s="7"/>
       <c r="L495" s="1"/>
     </row>
-    <row r="496" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="212" t="s">
         <v>898</v>
       </c>
@@ -21922,7 +21922,7 @@
       <c r="K496" s="7"/>
       <c r="L496" s="1"/>
     </row>
-    <row r="497" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="212" t="s">
         <v>898</v>
       </c>
@@ -21950,7 +21950,7 @@
       <c r="K497" s="7"/>
       <c r="L497" s="1"/>
     </row>
-    <row r="498" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="212" t="s">
         <v>940</v>
       </c>
@@ -21978,7 +21978,7 @@
       <c r="K498" s="7"/>
       <c r="L498" s="1"/>
     </row>
-    <row r="499" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A499" s="212" t="s">
         <v>940</v>
       </c>
@@ -22006,7 +22006,7 @@
       <c r="K499" s="7"/>
       <c r="L499" s="1"/>
     </row>
-    <row r="500" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="212" t="s">
         <v>942</v>
       </c>
@@ -22038,7 +22038,7 @@
       <c r="K500" s="7"/>
       <c r="L500" s="1"/>
     </row>
-    <row r="501" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A501" s="212" t="s">
         <v>942</v>
       </c>
@@ -22066,7 +22066,7 @@
       <c r="K501" s="7"/>
       <c r="L501" s="1"/>
     </row>
-    <row r="502" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A502" s="212" t="s">
         <v>942</v>
       </c>
@@ -22098,7 +22098,7 @@
       <c r="K502" s="7"/>
       <c r="L502" s="1"/>
     </row>
-    <row r="503" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A503" s="212" t="s">
         <v>927</v>
       </c>
@@ -22130,7 +22130,7 @@
       <c r="K503" s="7"/>
       <c r="L503" s="1"/>
     </row>
-    <row r="504" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A504" s="212" t="s">
         <v>927</v>
       </c>
@@ -22158,7 +22158,7 @@
       <c r="K504" s="7"/>
       <c r="L504" s="1"/>
     </row>
-    <row r="505" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A505" s="212" t="s">
         <v>927</v>
       </c>
@@ -22186,7 +22186,7 @@
       <c r="K505" s="7"/>
       <c r="L505" s="1"/>
     </row>
-    <row r="506" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A506" s="212" t="s">
         <v>927</v>
       </c>
@@ -22214,7 +22214,7 @@
       <c r="K506" s="7"/>
       <c r="L506" s="1"/>
     </row>
-    <row r="507" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A507" s="212" t="s">
         <v>900</v>
       </c>
@@ -22246,7 +22246,7 @@
       <c r="K507" s="7"/>
       <c r="L507" s="1"/>
     </row>
-    <row r="508" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A508" s="212" t="s">
         <v>900</v>
       </c>
@@ -22274,7 +22274,7 @@
       <c r="K508" s="7"/>
       <c r="L508" s="1"/>
     </row>
-    <row r="509" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A509" s="212" t="s">
         <v>900</v>
       </c>
@@ -22306,7 +22306,7 @@
       <c r="K509" s="7"/>
       <c r="L509" s="1"/>
     </row>
-    <row r="510" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A510" s="212" t="s">
         <v>900</v>
       </c>
@@ -22336,7 +22336,7 @@
       <c r="K510" s="7"/>
       <c r="L510" s="1"/>
     </row>
-    <row r="511" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A511" s="212" t="s">
         <v>966</v>
       </c>
@@ -22368,7 +22368,7 @@
       <c r="K511" s="7"/>
       <c r="L511" s="1"/>
     </row>
-    <row r="512" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" s="212" t="s">
         <v>966</v>
       </c>
@@ -22400,7 +22400,7 @@
       <c r="K512" s="7"/>
       <c r="L512" s="1"/>
     </row>
-    <row r="513" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="212" t="s">
         <v>927</v>
       </c>
@@ -22428,7 +22428,7 @@
       <c r="K513" s="7"/>
       <c r="L513" s="1"/>
     </row>
-    <row r="514" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A514" s="212" t="s">
         <v>927</v>
       </c>
@@ -22456,7 +22456,7 @@
       <c r="K514" s="7"/>
       <c r="L514" s="1"/>
     </row>
-    <row r="515" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A515" s="212" t="s">
         <v>949</v>
       </c>
@@ -22488,7 +22488,7 @@
       <c r="K515" s="7"/>
       <c r="L515" s="1"/>
     </row>
-    <row r="516" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A516" s="212" t="s">
         <v>949</v>
       </c>
@@ -22520,7 +22520,7 @@
       <c r="K516" s="7"/>
       <c r="L516" s="1"/>
     </row>
-    <row r="517" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A517" s="212" t="s">
         <v>952</v>
       </c>
@@ -22552,7 +22552,7 @@
       <c r="K517" s="7"/>
       <c r="L517" s="1"/>
     </row>
-    <row r="518" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A518" s="212" t="s">
         <v>935</v>
       </c>
@@ -22584,7 +22584,7 @@
       <c r="K518" s="7"/>
       <c r="L518" s="1"/>
     </row>
-    <row r="519" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A519" s="212" t="s">
         <v>935</v>
       </c>
@@ -22612,7 +22612,7 @@
       <c r="K519" s="7"/>
       <c r="L519" s="1"/>
     </row>
-    <row r="520" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A520" s="212" t="s">
         <v>935</v>
       </c>
@@ -22644,7 +22644,7 @@
       <c r="K520" s="7"/>
       <c r="L520" s="1"/>
     </row>
-    <row r="521" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A521" s="212" t="s">
         <v>935</v>
       </c>
@@ -22672,7 +22672,7 @@
       <c r="K521" s="7"/>
       <c r="L521" s="1"/>
     </row>
-    <row r="522" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A522" s="212" t="s">
         <v>892</v>
       </c>
@@ -22700,7 +22700,7 @@
       <c r="K522" s="7"/>
       <c r="L522" s="1"/>
     </row>
-    <row r="523" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A523" s="212" t="s">
         <v>963</v>
       </c>
@@ -22728,7 +22728,7 @@
       <c r="K523" s="7"/>
       <c r="L523" s="1"/>
     </row>
-    <row r="524" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A524" s="212" t="s">
         <v>892</v>
       </c>
@@ -22760,7 +22760,7 @@
       <c r="K524" s="7"/>
       <c r="L524" s="1"/>
     </row>
-    <row r="525" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A525" s="212" t="s">
         <v>892</v>
       </c>
@@ -22792,7 +22792,7 @@
       <c r="K525" s="7"/>
       <c r="L525" s="1"/>
     </row>
-    <row r="526" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A526" s="212" t="s">
         <v>947</v>
       </c>
@@ -22824,7 +22824,7 @@
       <c r="K526" s="7"/>
       <c r="L526" s="1"/>
     </row>
-    <row r="527" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A527" s="212" t="s">
         <v>947</v>
       </c>
@@ -22856,7 +22856,7 @@
       <c r="K527" s="7"/>
       <c r="L527" s="1"/>
     </row>
-    <row r="528" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="212" t="s">
         <v>947</v>
       </c>
@@ -22884,7 +22884,7 @@
       <c r="K528" s="7"/>
       <c r="L528" s="1"/>
     </row>
-    <row r="529" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A529" s="212" t="s">
         <v>967</v>
       </c>
@@ -22916,7 +22916,7 @@
       <c r="K529" s="7"/>
       <c r="L529" s="1"/>
     </row>
-    <row r="530" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A530" s="212" t="s">
         <v>878</v>
       </c>
@@ -22948,7 +22948,7 @@
       <c r="K530" s="7"/>
       <c r="L530" s="1"/>
     </row>
-    <row r="531" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A531" s="212" t="s">
         <v>878</v>
       </c>
@@ -22976,7 +22976,7 @@
       <c r="K531" s="7"/>
       <c r="L531" s="1"/>
     </row>
-    <row r="532" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A532" s="212" t="s">
         <v>895</v>
       </c>
@@ -23008,7 +23008,7 @@
       <c r="K532" s="7"/>
       <c r="L532" s="1"/>
     </row>
-    <row r="533" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A533" s="212" t="s">
         <v>895</v>
       </c>
@@ -23040,7 +23040,7 @@
       <c r="K533" s="7"/>
       <c r="L533" s="1"/>
     </row>
-    <row r="534" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="534" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A534" s="212" t="s">
         <v>895</v>
       </c>
@@ -23072,7 +23072,7 @@
       <c r="K534" s="7"/>
       <c r="L534" s="1"/>
     </row>
-    <row r="535" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A535" s="212" t="s">
         <v>936</v>
       </c>
@@ -23100,7 +23100,7 @@
       <c r="K535" s="7"/>
       <c r="L535" s="1"/>
     </row>
-    <row r="536" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A536" s="212" t="s">
         <v>936</v>
       </c>
@@ -23132,7 +23132,7 @@
       <c r="K536" s="7"/>
       <c r="L536" s="1"/>
     </row>
-    <row r="537" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A537" s="212" t="s">
         <v>936</v>
       </c>
@@ -23160,7 +23160,7 @@
       <c r="K537" s="7"/>
       <c r="L537" s="1"/>
     </row>
-    <row r="538" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A538" s="212" t="s">
         <v>964</v>
       </c>
@@ -23192,7 +23192,7 @@
       <c r="K538" s="7"/>
       <c r="L538" s="1"/>
     </row>
-    <row r="539" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="212" t="s">
         <v>964</v>
       </c>
@@ -23220,7 +23220,7 @@
       <c r="K539" s="7"/>
       <c r="L539" s="1"/>
     </row>
-    <row r="540" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A540" s="212" t="s">
         <v>964</v>
       </c>
@@ -23252,7 +23252,7 @@
       <c r="K540" s="7"/>
       <c r="L540" s="1"/>
     </row>
-    <row r="541" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A541" s="212" t="s">
         <v>964</v>
       </c>
@@ -23284,7 +23284,7 @@
       <c r="K541" s="7"/>
       <c r="L541" s="1"/>
     </row>
-    <row r="542" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A542" s="212" t="s">
         <v>964</v>
       </c>
@@ -23316,7 +23316,7 @@
       <c r="K542" s="7"/>
       <c r="L542" s="1"/>
     </row>
-    <row r="543" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="212" t="s">
         <v>927</v>
       </c>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="L543" s="1"/>
     </row>
-    <row r="544" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="212" t="s">
         <v>927</v>
       </c>
@@ -23378,7 +23378,7 @@
       <c r="K544" s="7"/>
       <c r="L544" s="1"/>
     </row>
-    <row r="545" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A545" s="212" t="s">
         <v>955</v>
       </c>
@@ -23406,7 +23406,7 @@
       <c r="K545" s="7"/>
       <c r="L545" s="1"/>
     </row>
-    <row r="546" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A546" s="212" t="s">
         <v>927</v>
       </c>
@@ -23434,7 +23434,7 @@
       <c r="K546" s="7"/>
       <c r="L546" s="1"/>
     </row>
-    <row r="547" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="212" t="s">
         <v>955</v>
       </c>
@@ -23462,7 +23462,7 @@
       <c r="K547" s="7"/>
       <c r="L547" s="1"/>
     </row>
-    <row r="548" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A548" s="212" t="s">
         <v>927</v>
       </c>
@@ -23490,7 +23490,7 @@
       <c r="K548" s="7"/>
       <c r="L548" s="1"/>
     </row>
-    <row r="549" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A549" s="212" t="s">
         <v>967</v>
       </c>
@@ -23522,7 +23522,7 @@
       <c r="K549" s="7"/>
       <c r="L549" s="1"/>
     </row>
-    <row r="550" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="212" t="s">
         <v>957</v>
       </c>
@@ -23550,7 +23550,7 @@
       <c r="K550" s="7"/>
       <c r="L550" s="1"/>
     </row>
-    <row r="551" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A551" s="212" t="s">
         <v>944</v>
       </c>
@@ -23578,7 +23578,7 @@
       <c r="K551" s="8"/>
       <c r="L551" s="1"/>
     </row>
-    <row r="552" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A552" s="212" t="s">
         <v>955</v>
       </c>
@@ -23606,7 +23606,7 @@
       <c r="K552" s="7"/>
       <c r="L552" s="1"/>
     </row>
-    <row r="553" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="212" t="s">
         <v>955</v>
       </c>
@@ -23636,7 +23636,7 @@
       <c r="K553" s="7"/>
       <c r="L553" s="1"/>
     </row>
-    <row r="554" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="212" t="s">
         <v>955</v>
       </c>
@@ -23668,7 +23668,7 @@
       <c r="K554" s="7"/>
       <c r="L554" s="1"/>
     </row>
-    <row r="555" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A555" s="212" t="s">
         <v>937</v>
       </c>
@@ -23696,7 +23696,7 @@
       <c r="K555" s="7"/>
       <c r="L555" s="1"/>
     </row>
-    <row r="556" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A556" s="212" t="s">
         <v>966</v>
       </c>
@@ -23724,7 +23724,7 @@
       <c r="K556" s="7"/>
       <c r="L556" s="1"/>
     </row>
-    <row r="557" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="212" t="s">
         <v>955</v>
       </c>
@@ -23752,7 +23752,7 @@
       <c r="K557" s="7"/>
       <c r="L557" s="1"/>
     </row>
-    <row r="558" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A558" s="212" t="s">
         <v>891</v>
       </c>
@@ -23780,7 +23780,7 @@
       <c r="K558" s="7"/>
       <c r="L558" s="1"/>
     </row>
-    <row r="559" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="212" t="s">
         <v>966</v>
       </c>
@@ -23808,7 +23808,7 @@
       <c r="K559" s="7"/>
       <c r="L559" s="1"/>
     </row>
-    <row r="560" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="212" t="s">
         <v>966</v>
       </c>
@@ -23836,7 +23836,7 @@
       <c r="K560" s="7"/>
       <c r="L560" s="1"/>
     </row>
-    <row r="561" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="212" t="s">
         <v>965</v>
       </c>
@@ -23868,7 +23868,7 @@
       <c r="K561" s="7"/>
       <c r="L561" s="1"/>
     </row>
-    <row r="562" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A562" s="212" t="s">
         <v>965</v>
       </c>
@@ -23896,7 +23896,7 @@
       <c r="K562" s="7"/>
       <c r="L562" s="1"/>
     </row>
-    <row r="563" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="212" t="s">
         <v>895</v>
       </c>
@@ -23924,7 +23924,7 @@
       <c r="K563" s="7"/>
       <c r="L563" s="1"/>
     </row>
-    <row r="564" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A564" s="212" t="s">
         <v>880</v>
       </c>
@@ -23952,7 +23952,7 @@
       <c r="K564" s="7"/>
       <c r="L564" s="1"/>
     </row>
-    <row r="565" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A565" s="212" t="s">
         <v>881</v>
       </c>
@@ -23984,7 +23984,7 @@
       <c r="K565" s="7"/>
       <c r="L565" s="1"/>
     </row>
-    <row r="566" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="212" t="s">
         <v>968</v>
       </c>
@@ -24016,7 +24016,7 @@
       <c r="K566" s="7"/>
       <c r="L566" s="1"/>
     </row>
-    <row r="567" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="212" t="s">
         <v>968</v>
       </c>
@@ -24048,7 +24048,7 @@
       <c r="K567" s="7"/>
       <c r="L567" s="1"/>
     </row>
-    <row r="568" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="212" t="s">
         <v>899</v>
       </c>
@@ -24076,7 +24076,7 @@
       <c r="K568" s="7"/>
       <c r="L568" s="1"/>
     </row>
-    <row r="569" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A569" s="212" t="s">
         <v>967</v>
       </c>
@@ -24104,7 +24104,7 @@
       <c r="K569" s="7"/>
       <c r="L569" s="1"/>
     </row>
-    <row r="570" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A570" s="212" t="s">
         <v>899</v>
       </c>
@@ -24132,7 +24132,7 @@
       <c r="K570" s="7"/>
       <c r="L570" s="1"/>
     </row>
-    <row r="571" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A571" s="212" t="s">
         <v>899</v>
       </c>
@@ -24160,7 +24160,7 @@
       <c r="K571" s="7"/>
       <c r="L571" s="1"/>
     </row>
-    <row r="572" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="212" t="s">
         <v>939</v>
       </c>
@@ -24192,7 +24192,7 @@
       <c r="K572" s="7"/>
       <c r="L572" s="1"/>
     </row>
-    <row r="573" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A573" s="212" t="s">
         <v>939</v>
       </c>
@@ -24220,7 +24220,7 @@
       <c r="K573" s="7"/>
       <c r="L573" s="1"/>
     </row>
-    <row r="574" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="212" t="s">
         <v>939</v>
       </c>
@@ -24252,7 +24252,7 @@
       <c r="K574" s="7"/>
       <c r="L574" s="1"/>
     </row>
-    <row r="575" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="212" t="s">
         <v>939</v>
       </c>
@@ -24280,7 +24280,7 @@
       <c r="K575" s="7"/>
       <c r="L575" s="1"/>
     </row>
-    <row r="576" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="212" t="s">
         <v>939</v>
       </c>
@@ -24312,7 +24312,7 @@
       <c r="K576" s="7"/>
       <c r="L576" s="1"/>
     </row>
-    <row r="577" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A577" s="212" t="s">
         <v>939</v>
       </c>
@@ -24344,7 +24344,7 @@
       <c r="K577" s="7"/>
       <c r="L577" s="1"/>
     </row>
-    <row r="578" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="212" t="s">
         <v>939</v>
       </c>
@@ -24372,7 +24372,7 @@
       <c r="K578" s="7"/>
       <c r="L578" s="1"/>
     </row>
-    <row r="579" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A579" s="212" t="s">
         <v>939</v>
       </c>
@@ -24400,7 +24400,7 @@
       <c r="K579" s="7"/>
       <c r="L579" s="1"/>
     </row>
-    <row r="580" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A580" s="212" t="s">
         <v>939</v>
       </c>
@@ -24432,7 +24432,7 @@
       <c r="K580" s="7"/>
       <c r="L580" s="1"/>
     </row>
-    <row r="581" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A581" s="212" t="s">
         <v>900</v>
       </c>
@@ -24464,7 +24464,7 @@
       <c r="K581" s="7"/>
       <c r="L581" s="1"/>
     </row>
-    <row r="582" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A582" s="212" t="s">
         <v>900</v>
       </c>
@@ -24496,7 +24496,7 @@
       <c r="K582" s="7"/>
       <c r="L582" s="1"/>
     </row>
-    <row r="583" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="212" t="s">
         <v>900</v>
       </c>
@@ -24528,7 +24528,7 @@
       <c r="K583" s="7"/>
       <c r="L583" s="1"/>
     </row>
-    <row r="584" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A584" s="212" t="s">
         <v>932</v>
       </c>
@@ -24556,7 +24556,7 @@
       <c r="K584" s="7"/>
       <c r="L584" s="1"/>
     </row>
-    <row r="585" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="585" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A585" s="212" t="s">
         <v>932</v>
       </c>
@@ -24588,7 +24588,7 @@
       <c r="K585" s="7"/>
       <c r="L585" s="1"/>
     </row>
-    <row r="586" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A586" s="212" t="s">
         <v>932</v>
       </c>
@@ -24616,7 +24616,7 @@
       <c r="K586" s="7"/>
       <c r="L586" s="1"/>
     </row>
-    <row r="587" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A587" s="212" t="s">
         <v>894</v>
       </c>
@@ -24648,7 +24648,7 @@
       <c r="K587" s="7"/>
       <c r="L587" s="1"/>
     </row>
-    <row r="588" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A588" s="212" t="s">
         <v>964</v>
       </c>
@@ -24680,7 +24680,7 @@
       <c r="K588" s="7"/>
       <c r="L588" s="1"/>
     </row>
-    <row r="589" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="212" t="s">
         <v>948</v>
       </c>
@@ -24712,7 +24712,7 @@
       <c r="K589" s="7"/>
       <c r="L589" s="1"/>
     </row>
-    <row r="590" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="212" t="s">
         <v>948</v>
       </c>
@@ -24742,7 +24742,7 @@
       <c r="K590" s="7"/>
       <c r="L590" s="1"/>
     </row>
-    <row r="591" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A591" s="212" t="s">
         <v>948</v>
       </c>
@@ -24774,7 +24774,7 @@
       <c r="K591" s="7"/>
       <c r="L591" s="1"/>
     </row>
-    <row r="592" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="212" t="s">
         <v>968</v>
       </c>
@@ -24806,7 +24806,7 @@
       <c r="K592" s="7"/>
       <c r="L592" s="1"/>
     </row>
-    <row r="593" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="212" t="s">
         <v>968</v>
       </c>
@@ -24834,7 +24834,7 @@
       <c r="K593" s="7"/>
       <c r="L593" s="1"/>
     </row>
-    <row r="594" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="212" t="s">
         <v>887</v>
       </c>
@@ -24862,7 +24862,7 @@
       <c r="K594" s="7"/>
       <c r="L594" s="1"/>
     </row>
-    <row r="595" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="212" t="s">
         <v>887</v>
       </c>
@@ -24890,7 +24890,7 @@
       <c r="K595" s="7"/>
       <c r="L595" s="1"/>
     </row>
-    <row r="596" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A596" s="212" t="s">
         <v>895</v>
       </c>
@@ -24918,7 +24918,7 @@
       <c r="K596" s="7"/>
       <c r="L596" s="1"/>
     </row>
-    <row r="597" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="212" t="s">
         <v>880</v>
       </c>
@@ -24946,7 +24946,7 @@
       <c r="K597" s="7"/>
       <c r="L597" s="1"/>
     </row>
-    <row r="598" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="212" t="s">
         <v>876</v>
       </c>
@@ -24978,7 +24978,7 @@
       <c r="K598" s="7"/>
       <c r="L598" s="1"/>
     </row>
-    <row r="599" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A599" s="212" t="s">
         <v>876</v>
       </c>
@@ -25010,7 +25010,7 @@
       <c r="K599" s="7"/>
       <c r="L599" s="1"/>
     </row>
-    <row r="600" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A600" s="212" t="s">
         <v>934</v>
       </c>
@@ -25042,7 +25042,7 @@
       <c r="K600" s="7"/>
       <c r="L600" s="1"/>
     </row>
-    <row r="601" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="212" t="s">
         <v>875</v>
       </c>
@@ -25070,7 +25070,7 @@
       <c r="K601" s="7"/>
       <c r="L601" s="1"/>
     </row>
-    <row r="602" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A602" s="212" t="s">
         <v>875</v>
       </c>
@@ -25098,7 +25098,7 @@
       <c r="K602" s="7"/>
       <c r="L602" s="1"/>
     </row>
-    <row r="603" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A603" s="212" t="s">
         <v>875</v>
       </c>
@@ -25126,7 +25126,7 @@
       <c r="K603" s="7"/>
       <c r="L603" s="1"/>
     </row>
-    <row r="604" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A604" s="212" t="s">
         <v>875</v>
       </c>
@@ -25158,7 +25158,7 @@
       <c r="K604" s="7"/>
       <c r="L604" s="1"/>
     </row>
-    <row r="605" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="212" t="s">
         <v>875</v>
       </c>
@@ -25186,7 +25186,7 @@
       <c r="K605" s="7"/>
       <c r="L605" s="1"/>
     </row>
-    <row r="606" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A606" s="212" t="s">
         <v>876</v>
       </c>
@@ -25214,7 +25214,7 @@
       <c r="K606" s="7"/>
       <c r="L606" s="1"/>
     </row>
-    <row r="607" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A607" s="212" t="s">
         <v>876</v>
       </c>
@@ -25246,7 +25246,7 @@
       <c r="K607" s="7"/>
       <c r="L607" s="1"/>
     </row>
-    <row r="608" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="212" t="s">
         <v>876</v>
       </c>
@@ -25310,7 +25310,7 @@
       <c r="K609" s="7"/>
       <c r="L609" s="1"/>
     </row>
-    <row r="610" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A610" s="212" t="s">
         <v>894</v>
       </c>
@@ -25338,7 +25338,7 @@
       <c r="K610" s="7"/>
       <c r="L610" s="1"/>
     </row>
-    <row r="611" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A611" s="212" t="s">
         <v>894</v>
       </c>
@@ -25366,7 +25366,7 @@
       <c r="K611" s="7"/>
       <c r="L611" s="1"/>
     </row>
-    <row r="612" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A612" s="212" t="s">
         <v>894</v>
       </c>
@@ -25394,7 +25394,7 @@
       <c r="K612" s="7"/>
       <c r="L612" s="1"/>
     </row>
-    <row r="613" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A613" s="212" t="s">
         <v>894</v>
       </c>
@@ -25426,7 +25426,7 @@
       <c r="K613" s="7"/>
       <c r="L613" s="1"/>
     </row>
-    <row r="614" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A614" s="212" t="s">
         <v>886</v>
       </c>
@@ -25454,7 +25454,7 @@
       <c r="K614" s="7"/>
       <c r="L614" s="1"/>
     </row>
-    <row r="615" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="212" t="s">
         <v>886</v>
       </c>
@@ -25482,7 +25482,7 @@
       <c r="K615" s="7"/>
       <c r="L615" s="1"/>
     </row>
-    <row r="616" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="212" t="s">
         <v>886</v>
       </c>
@@ -25514,7 +25514,7 @@
       <c r="K616" s="7"/>
       <c r="L616" s="1"/>
     </row>
-    <row r="617" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A617" s="212" t="s">
         <v>954</v>
       </c>
@@ -25542,7 +25542,7 @@
       <c r="K617" s="7"/>
       <c r="L617" s="1"/>
     </row>
-    <row r="618" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A618" s="212" t="s">
         <v>884</v>
       </c>
@@ -25570,7 +25570,7 @@
       <c r="K618" s="7"/>
       <c r="L618" s="1"/>
     </row>
-    <row r="619" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A619" s="212" t="s">
         <v>884</v>
       </c>
@@ -25598,7 +25598,7 @@
       <c r="K619" s="7"/>
       <c r="L619" s="1"/>
     </row>
-    <row r="620" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A620" s="212" t="s">
         <v>884</v>
       </c>
@@ -25626,7 +25626,7 @@
       <c r="K620" s="7"/>
       <c r="L620" s="1"/>
     </row>
-    <row r="621" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A621" s="212" t="s">
         <v>884</v>
       </c>
@@ -25654,7 +25654,7 @@
       <c r="K621" s="7"/>
       <c r="L621" s="1"/>
     </row>
-    <row r="622" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A622" s="212" t="s">
         <v>942</v>
       </c>
@@ -25686,7 +25686,7 @@
       <c r="K622" s="7"/>
       <c r="L622" s="1"/>
     </row>
-    <row r="623" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="212" t="s">
         <v>964</v>
       </c>
@@ -25714,7 +25714,7 @@
       <c r="K623" s="7"/>
       <c r="L623" s="1"/>
     </row>
-    <row r="624" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A624" s="212" t="s">
         <v>964</v>
       </c>
@@ -25742,7 +25742,7 @@
       <c r="K624" s="7"/>
       <c r="L624" s="1"/>
     </row>
-    <row r="625" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A625" s="212" t="s">
         <v>964</v>
       </c>
@@ -25770,7 +25770,7 @@
       <c r="K625" s="7"/>
       <c r="L625" s="1"/>
     </row>
-    <row r="626" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A626" s="212" t="s">
         <v>964</v>
       </c>
@@ -25798,7 +25798,7 @@
       <c r="K626" s="7"/>
       <c r="L626" s="1"/>
     </row>
-    <row r="627" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="212" t="s">
         <v>964</v>
       </c>
@@ -25826,7 +25826,7 @@
       <c r="K627" s="7"/>
       <c r="L627" s="1"/>
     </row>
-    <row r="628" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A628" s="212" t="s">
         <v>877</v>
       </c>
@@ -25858,7 +25858,7 @@
       <c r="K628" s="7"/>
       <c r="L628" s="1"/>
     </row>
-    <row r="629" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A629" s="212" t="s">
         <v>877</v>
       </c>
@@ -25886,7 +25886,7 @@
       <c r="K629" s="7"/>
       <c r="L629" s="1"/>
     </row>
-    <row r="630" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A630" s="212" t="s">
         <v>889</v>
       </c>
@@ -25914,7 +25914,7 @@
       <c r="K630" s="7"/>
       <c r="L630" s="1"/>
     </row>
-    <row r="631" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="212" t="s">
         <v>889</v>
       </c>
@@ -25946,7 +25946,7 @@
       <c r="K631" s="7"/>
       <c r="L631" s="1"/>
     </row>
-    <row r="632" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A632" s="212" t="s">
         <v>889</v>
       </c>
@@ -25974,7 +25974,7 @@
       <c r="K632" s="7"/>
       <c r="L632" s="1"/>
     </row>
-    <row r="633" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A633" s="212" t="s">
         <v>952</v>
       </c>
@@ -26006,7 +26006,7 @@
       <c r="K633" s="7"/>
       <c r="L633" s="1"/>
     </row>
-    <row r="634" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A634" s="212" t="s">
         <v>930</v>
       </c>
@@ -26038,7 +26038,7 @@
       <c r="K634" s="7"/>
       <c r="L634" s="1"/>
     </row>
-    <row r="635" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A635" s="212" t="s">
         <v>930</v>
       </c>
@@ -26066,7 +26066,7 @@
       <c r="K635" s="7"/>
       <c r="L635" s="1"/>
     </row>
-    <row r="636" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A636" s="212" t="s">
         <v>930</v>
       </c>
@@ -26094,7 +26094,7 @@
       <c r="K636" s="7"/>
       <c r="L636" s="1"/>
     </row>
-    <row r="637" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A637" s="212" t="s">
         <v>930</v>
       </c>
@@ -26122,7 +26122,7 @@
       <c r="K637" s="7"/>
       <c r="L637" s="1"/>
     </row>
-    <row r="638" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A638" s="212" t="s">
         <v>930</v>
       </c>
@@ -26150,7 +26150,7 @@
       <c r="K638" s="7"/>
       <c r="L638" s="1"/>
     </row>
-    <row r="639" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A639" s="212" t="s">
         <v>930</v>
       </c>
@@ -26178,7 +26178,7 @@
       <c r="K639" s="7"/>
       <c r="L639" s="1"/>
     </row>
-    <row r="640" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="212" t="s">
         <v>930</v>
       </c>
@@ -26210,7 +26210,7 @@
       <c r="K640" s="7"/>
       <c r="L640" s="1"/>
     </row>
-    <row r="641" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A641" s="212" t="s">
         <v>930</v>
       </c>
@@ -26242,7 +26242,7 @@
       <c r="K641" s="7"/>
       <c r="L641" s="1"/>
     </row>
-    <row r="642" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="212" t="s">
         <v>930</v>
       </c>
@@ -26270,7 +26270,7 @@
       <c r="K642" s="7"/>
       <c r="L642" s="1"/>
     </row>
-    <row r="643" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="212" t="s">
         <v>930</v>
       </c>
@@ -26298,7 +26298,7 @@
       <c r="K643" s="7"/>
       <c r="L643" s="1"/>
     </row>
-    <row r="644" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="212" t="s">
         <v>930</v>
       </c>
@@ -26330,7 +26330,7 @@
       <c r="K644" s="7"/>
       <c r="L644" s="1"/>
     </row>
-    <row r="645" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A645" s="212" t="s">
         <v>930</v>
       </c>
@@ -26358,7 +26358,7 @@
       <c r="K645" s="7"/>
       <c r="L645" s="1"/>
     </row>
-    <row r="646" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A646" s="212" t="s">
         <v>930</v>
       </c>
@@ -26386,7 +26386,7 @@
       <c r="K646" s="7"/>
       <c r="L646" s="1"/>
     </row>
-    <row r="647" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A647" s="212" t="s">
         <v>930</v>
       </c>
@@ -26414,7 +26414,7 @@
       <c r="K647" s="7"/>
       <c r="L647" s="1"/>
     </row>
-    <row r="648" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A648" s="212" t="s">
         <v>930</v>
       </c>
@@ -26442,7 +26442,7 @@
       <c r="K648" s="7"/>
       <c r="L648" s="1"/>
     </row>
-    <row r="649" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="212" t="s">
         <v>930</v>
       </c>
@@ -26470,7 +26470,7 @@
       <c r="K649" s="7"/>
       <c r="L649" s="1"/>
     </row>
-    <row r="650" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A650" s="212" t="s">
         <v>957</v>
       </c>
@@ -26502,7 +26502,7 @@
       <c r="K650" s="7"/>
       <c r="L650" s="1"/>
     </row>
-    <row r="651" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A651" s="212" t="s">
         <v>957</v>
       </c>
@@ -26534,7 +26534,7 @@
       <c r="K651" s="7"/>
       <c r="L651" s="1"/>
     </row>
-    <row r="652" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="652" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A652" s="212" t="s">
         <v>893</v>
       </c>
@@ -26562,7 +26562,7 @@
       <c r="K652" s="7"/>
       <c r="L652" s="1"/>
     </row>
-    <row r="653" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A653" s="212" t="s">
         <v>893</v>
       </c>
@@ -26594,7 +26594,7 @@
       <c r="K653" s="7"/>
       <c r="L653" s="1"/>
     </row>
-    <row r="654" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A654" s="212" t="s">
         <v>893</v>
       </c>
@@ -26626,7 +26626,7 @@
       <c r="K654" s="7"/>
       <c r="L654" s="1"/>
     </row>
-    <row r="655" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A655" s="212" t="s">
         <v>893</v>
       </c>
@@ -26654,7 +26654,7 @@
       <c r="K655" s="7"/>
       <c r="L655" s="1"/>
     </row>
-    <row r="656" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="212" t="s">
         <v>966</v>
       </c>
@@ -26682,7 +26682,7 @@
       <c r="K656" s="7"/>
       <c r="L656" s="1"/>
     </row>
-    <row r="657" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A657" s="212" t="s">
         <v>966</v>
       </c>
@@ -26710,7 +26710,7 @@
       <c r="K657" s="7"/>
       <c r="L657" s="1"/>
     </row>
-    <row r="658" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A658" s="212" t="s">
         <v>966</v>
       </c>
@@ -26742,7 +26742,7 @@
       <c r="K658" s="7"/>
       <c r="L658" s="1"/>
     </row>
-    <row r="659" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="212" t="s">
         <v>967</v>
       </c>
@@ -26770,7 +26770,7 @@
       <c r="K659" s="7"/>
       <c r="L659" s="1"/>
     </row>
-    <row r="660" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A660" s="212" t="s">
         <v>967</v>
       </c>
@@ -26798,7 +26798,7 @@
       <c r="K660" s="7"/>
       <c r="L660" s="1"/>
     </row>
-    <row r="661" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A661" s="212" t="s">
         <v>967</v>
       </c>
@@ -26826,7 +26826,7 @@
       <c r="K661" s="7"/>
       <c r="L661" s="1"/>
     </row>
-    <row r="662" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A662" s="212" t="s">
         <v>885</v>
       </c>
@@ -26854,7 +26854,7 @@
       <c r="K662" s="7"/>
       <c r="L662" s="1"/>
     </row>
-    <row r="663" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A663" s="212" t="s">
         <v>885</v>
       </c>
@@ -26886,7 +26886,7 @@
       <c r="K663" s="7"/>
       <c r="L663" s="1"/>
     </row>
-    <row r="664" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A664" s="212" t="s">
         <v>956</v>
       </c>
@@ -26914,7 +26914,7 @@
       <c r="K664" s="7"/>
       <c r="L664" s="1"/>
     </row>
-    <row r="665" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A665" s="212" t="s">
         <v>883</v>
       </c>
@@ -26942,7 +26942,7 @@
       <c r="K665" s="7"/>
       <c r="L665" s="1"/>
     </row>
-    <row r="666" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A666" s="212" t="s">
         <v>883</v>
       </c>
@@ -26974,7 +26974,7 @@
       <c r="K666" s="7"/>
       <c r="L666" s="1"/>
     </row>
-    <row r="667" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="212" t="s">
         <v>950</v>
       </c>
@@ -27006,7 +27006,7 @@
       <c r="K667" s="7"/>
       <c r="L667" s="1"/>
     </row>
-    <row r="668" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="212" t="s">
         <v>950</v>
       </c>
@@ -27034,7 +27034,7 @@
       <c r="K668" s="7"/>
       <c r="L668" s="1"/>
     </row>
-    <row r="669" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A669" s="212" t="s">
         <v>950</v>
       </c>
@@ -27066,7 +27066,7 @@
       <c r="K669" s="7"/>
       <c r="L669" s="1"/>
     </row>
-    <row r="670" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="212" t="s">
         <v>950</v>
       </c>
@@ -27098,7 +27098,7 @@
       <c r="K670" s="7"/>
       <c r="L670" s="1"/>
     </row>
-    <row r="671" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="671" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A671" s="212" t="s">
         <v>950</v>
       </c>
@@ -27130,7 +27130,7 @@
       <c r="K671" s="7"/>
       <c r="L671" s="1"/>
     </row>
-    <row r="672" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="672" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A672" s="212" t="s">
         <v>950</v>
       </c>
@@ -27162,7 +27162,7 @@
       <c r="K672" s="7"/>
       <c r="L672" s="1"/>
     </row>
-    <row r="673" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="673" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A673" s="212" t="s">
         <v>950</v>
       </c>
@@ -27190,7 +27190,7 @@
       <c r="K673" s="7"/>
       <c r="L673" s="1"/>
     </row>
-    <row r="674" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="674" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A674" s="212" t="s">
         <v>950</v>
       </c>
@@ -27222,7 +27222,7 @@
       <c r="K674" s="7"/>
       <c r="L674" s="1"/>
     </row>
-    <row r="675" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A675" s="212" t="s">
         <v>942</v>
       </c>
@@ -27254,7 +27254,7 @@
       <c r="K675" s="7"/>
       <c r="L675" s="1"/>
     </row>
-    <row r="676" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A676" s="212" t="s">
         <v>942</v>
       </c>
@@ -27286,7 +27286,7 @@
       <c r="K676" s="7"/>
       <c r="L676" s="1"/>
     </row>
-    <row r="677" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A677" s="212" t="s">
         <v>942</v>
       </c>
@@ -27318,7 +27318,7 @@
       <c r="K677" s="7"/>
       <c r="L677" s="1"/>
     </row>
-    <row r="678" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A678" s="212" t="s">
         <v>963</v>
       </c>
@@ -27350,7 +27350,7 @@
       <c r="K678" s="7"/>
       <c r="L678" s="1"/>
     </row>
-    <row r="679" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A679" s="212" t="s">
         <v>963</v>
       </c>
@@ -27382,7 +27382,7 @@
       <c r="K679" s="7"/>
       <c r="L679" s="1"/>
     </row>
-    <row r="680" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A680" s="212" t="s">
         <v>877</v>
       </c>
@@ -27410,7 +27410,7 @@
       <c r="K680" s="7"/>
       <c r="L680" s="1"/>
     </row>
-    <row r="681" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A681" s="212" t="s">
         <v>877</v>
       </c>
@@ -27438,7 +27438,7 @@
       <c r="K681" s="7"/>
       <c r="L681" s="1"/>
     </row>
-    <row r="682" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A682" s="212" t="s">
         <v>877</v>
       </c>
@@ -27466,7 +27466,7 @@
       <c r="K682" s="7"/>
       <c r="L682" s="1"/>
     </row>
-    <row r="683" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A683" s="212" t="s">
         <v>877</v>
       </c>
@@ -27494,7 +27494,7 @@
       <c r="K683" s="7"/>
       <c r="L683" s="1"/>
     </row>
-    <row r="684" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A684" s="212" t="s">
         <v>878</v>
       </c>
@@ -27522,7 +27522,7 @@
       <c r="K684" s="7"/>
       <c r="L684" s="1"/>
     </row>
-    <row r="685" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A685" s="212" t="s">
         <v>878</v>
       </c>
@@ -27550,7 +27550,7 @@
       <c r="K685" s="7"/>
       <c r="L685" s="1"/>
     </row>
-    <row r="686" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A686" s="212" t="s">
         <v>876</v>
       </c>
@@ -27582,7 +27582,7 @@
       <c r="K686" s="7"/>
       <c r="L686" s="1"/>
     </row>
-    <row r="687" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A687" s="212" t="s">
         <v>876</v>
       </c>
@@ -27610,7 +27610,7 @@
       <c r="K687" s="7"/>
       <c r="L687" s="1"/>
     </row>
-    <row r="688" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A688" s="212" t="s">
         <v>879</v>
       </c>
@@ -27638,7 +27638,7 @@
       <c r="K688" s="7"/>
       <c r="L688" s="1"/>
     </row>
-    <row r="689" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A689" s="212" t="s">
         <v>879</v>
       </c>
@@ -27666,7 +27666,7 @@
       <c r="K689" s="7"/>
       <c r="L689" s="1"/>
     </row>
-    <row r="690" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A690" s="212" t="s">
         <v>879</v>
       </c>
@@ -27694,7 +27694,7 @@
       <c r="K690" s="7"/>
       <c r="L690" s="1"/>
     </row>
-    <row r="691" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A691" s="212" t="s">
         <v>879</v>
       </c>
@@ -27722,7 +27722,7 @@
       <c r="K691" s="7"/>
       <c r="L691" s="1"/>
     </row>
-    <row r="692" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A692" s="212" t="s">
         <v>879</v>
       </c>
@@ -27754,7 +27754,7 @@
       <c r="K692" s="7"/>
       <c r="L692" s="1"/>
     </row>
-    <row r="693" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A693" s="212" t="s">
         <v>879</v>
       </c>
@@ -27782,7 +27782,7 @@
       <c r="K693" s="7"/>
       <c r="L693" s="1"/>
     </row>
-    <row r="694" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A694" s="212" t="s">
         <v>880</v>
       </c>
@@ -27814,7 +27814,7 @@
       <c r="K694" s="7"/>
       <c r="L694" s="1"/>
     </row>
-    <row r="695" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A695" s="212" t="s">
         <v>881</v>
       </c>
@@ -27846,7 +27846,7 @@
       <c r="K695" s="7"/>
       <c r="L695" s="1"/>
     </row>
-    <row r="696" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A696" s="212" t="s">
         <v>876</v>
       </c>
@@ -27878,7 +27878,7 @@
       <c r="K696" s="7"/>
       <c r="L696" s="1"/>
     </row>
-    <row r="697" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A697" s="212" t="s">
         <v>876</v>
       </c>
@@ -27906,7 +27906,7 @@
       <c r="K697" s="7"/>
       <c r="L697" s="1"/>
     </row>
-    <row r="698" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A698" s="212" t="s">
         <v>876</v>
       </c>
@@ -27934,7 +27934,7 @@
       <c r="K698" s="7"/>
       <c r="L698" s="1"/>
     </row>
-    <row r="699" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A699" s="212" t="s">
         <v>876</v>
       </c>
@@ -27962,7 +27962,7 @@
       <c r="K699" s="7"/>
       <c r="L699" s="1"/>
     </row>
-    <row r="700" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="700" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A700" s="212" t="s">
         <v>951</v>
       </c>
@@ -27994,7 +27994,7 @@
       <c r="K700" s="7"/>
       <c r="L700" s="1"/>
     </row>
-    <row r="701" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A701" s="212" t="s">
         <v>951</v>
       </c>
@@ -28022,7 +28022,7 @@
       <c r="K701" s="7"/>
       <c r="L701" s="1"/>
     </row>
-    <row r="702" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A702" s="212" t="s">
         <v>893</v>
       </c>
@@ -28050,7 +28050,7 @@
       <c r="K702" s="7"/>
       <c r="L702" s="1"/>
     </row>
-    <row r="703" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A703" s="212" t="s">
         <v>893</v>
       </c>
@@ -28078,7 +28078,7 @@
       <c r="K703" s="7"/>
       <c r="L703" s="1"/>
     </row>
-    <row r="704" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A704" s="212" t="s">
         <v>893</v>
       </c>
@@ -28106,7 +28106,7 @@
       <c r="K704" s="7"/>
       <c r="L704" s="1"/>
     </row>
-    <row r="705" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A705" s="212" t="s">
         <v>893</v>
       </c>
@@ -28134,7 +28134,7 @@
       <c r="K705" s="7"/>
       <c r="L705" s="1"/>
     </row>
-    <row r="706" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A706" s="212" t="s">
         <v>893</v>
       </c>
@@ -28162,7 +28162,7 @@
       <c r="K706" s="7"/>
       <c r="L706" s="1"/>
     </row>
-    <row r="707" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A707" s="212" t="s">
         <v>893</v>
       </c>
@@ -28190,7 +28190,7 @@
       <c r="K707" s="7"/>
       <c r="L707" s="1"/>
     </row>
-    <row r="708" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A708" s="212" t="s">
         <v>893</v>
       </c>
@@ -28218,7 +28218,7 @@
       <c r="K708" s="7"/>
       <c r="L708" s="1"/>
     </row>
-    <row r="709" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A709" s="212" t="s">
         <v>893</v>
       </c>
@@ -28246,7 +28246,7 @@
       <c r="K709" s="7"/>
       <c r="L709" s="1"/>
     </row>
-    <row r="710" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="710" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A710" s="212" t="s">
         <v>893</v>
       </c>
@@ -28274,7 +28274,7 @@
       <c r="K710" s="7"/>
       <c r="L710" s="1"/>
     </row>
-    <row r="711" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A711" s="212" t="s">
         <v>938</v>
       </c>
@@ -28306,7 +28306,7 @@
       <c r="K711" s="7"/>
       <c r="L711" s="1"/>
     </row>
-    <row r="712" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="712" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A712" s="212" t="s">
         <v>938</v>
       </c>
@@ -28338,7 +28338,7 @@
       <c r="K712" s="6"/>
       <c r="L712" s="1"/>
     </row>
-    <row r="713" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A713" s="212" t="s">
         <v>938</v>
       </c>
@@ -28366,7 +28366,7 @@
       <c r="K713" s="6"/>
       <c r="L713" s="1"/>
     </row>
-    <row r="714" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A714" s="212" t="s">
         <v>941</v>
       </c>
@@ -28394,7 +28394,7 @@
       <c r="K714" s="6"/>
       <c r="L714" s="1"/>
     </row>
-    <row r="715" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A715" s="212" t="s">
         <v>941</v>
       </c>
@@ -28422,7 +28422,7 @@
       <c r="K715" s="6"/>
       <c r="L715" s="1"/>
     </row>
-    <row r="716" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A716" s="212" t="s">
         <v>897</v>
       </c>
@@ -28448,7 +28448,7 @@
       <c r="K716" s="6"/>
       <c r="L716" s="1"/>
     </row>
-    <row r="717" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A717" s="212" t="s">
         <v>925</v>
       </c>
@@ -28476,7 +28476,7 @@
       <c r="K717" s="6"/>
       <c r="L717" s="1"/>
     </row>
-    <row r="718" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A718" s="212" t="s">
         <v>927</v>
       </c>
@@ -28504,7 +28504,7 @@
       <c r="K718" s="6"/>
       <c r="L718" s="1"/>
     </row>
-    <row r="719" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A719" s="212" t="s">
         <v>927</v>
       </c>
@@ -28532,7 +28532,7 @@
       <c r="K719" s="6"/>
       <c r="L719" s="1"/>
     </row>
-    <row r="720" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A720" s="212" t="s">
         <v>927</v>
       </c>
@@ -28560,7 +28560,7 @@
       <c r="K720" s="6"/>
       <c r="L720" s="1"/>
     </row>
-    <row r="721" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A721" s="212" t="s">
         <v>927</v>
       </c>
@@ -28588,7 +28588,7 @@
       <c r="K721" s="7"/>
       <c r="L721" s="1"/>
     </row>
-    <row r="722" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A722" s="212" t="s">
         <v>927</v>
       </c>
@@ -28616,7 +28616,7 @@
       <c r="K722" s="7"/>
       <c r="L722" s="1"/>
     </row>
-    <row r="723" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A723" s="212" t="s">
         <v>927</v>
       </c>
@@ -28644,7 +28644,7 @@
       <c r="K723" s="6"/>
       <c r="L723" s="1"/>
     </row>
-    <row r="724" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A724" s="212" t="s">
         <v>996</v>
       </c>
@@ -28672,7 +28672,7 @@
       <c r="K724" s="6"/>
       <c r="L724" s="1"/>
     </row>
-    <row r="725" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A725" s="212" t="s">
         <v>996</v>
       </c>
@@ -28700,7 +28700,7 @@
       <c r="K725" s="6"/>
       <c r="L725" s="1"/>
     </row>
-    <row r="726" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A726" s="212" t="s">
         <v>996</v>
       </c>
@@ -28728,7 +28728,7 @@
       <c r="K726" s="6"/>
       <c r="L726" s="1"/>
     </row>
-    <row r="727" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A727" s="212" t="s">
         <v>960</v>
       </c>
@@ -28754,7 +28754,7 @@
       <c r="K727" s="6"/>
       <c r="L727" s="1"/>
     </row>
-    <row r="728" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A728" s="212" t="s">
         <v>896</v>
       </c>
@@ -28780,7 +28780,7 @@
       <c r="K728" s="6"/>
       <c r="L728" s="1"/>
     </row>
-    <row r="729" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A729" s="212" t="s">
         <v>896</v>
       </c>
@@ -28806,7 +28806,7 @@
       <c r="K729" s="6"/>
       <c r="L729" s="1"/>
     </row>
-    <row r="730" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A730" s="212" t="s">
         <v>927</v>
       </c>
@@ -28832,7 +28832,7 @@
       <c r="K730" s="6"/>
       <c r="L730" s="1"/>
     </row>
-    <row r="731" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A731" s="212" t="s">
         <v>927</v>
       </c>
@@ -28858,7 +28858,7 @@
       <c r="K731" s="6"/>
       <c r="L731" s="1"/>
     </row>
-    <row r="732" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A732" s="212" t="s">
         <v>927</v>
       </c>
@@ -28884,7 +28884,7 @@
       <c r="K732" s="6"/>
       <c r="L732" s="1"/>
     </row>
-    <row r="733" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A733" s="212" t="s">
         <v>927</v>
       </c>
@@ -28910,7 +28910,7 @@
       <c r="K733" s="6"/>
       <c r="L733" s="1"/>
     </row>
-    <row r="734" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A734" s="212" t="s">
         <v>997</v>
       </c>
@@ -28940,7 +28940,7 @@
       <c r="K734" s="6"/>
       <c r="L734" s="1"/>
     </row>
-    <row r="735" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A735" s="212" t="s">
         <v>997</v>
       </c>
@@ -28966,7 +28966,7 @@
       <c r="K735" s="6"/>
       <c r="L735" s="1"/>
     </row>
-    <row r="736" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A736" s="212" t="s">
         <v>997</v>
       </c>
@@ -28992,7 +28992,7 @@
       <c r="K736" s="6"/>
       <c r="L736" s="1"/>
     </row>
-    <row r="737" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A737" s="212" t="s">
         <v>997</v>
       </c>
@@ -29018,7 +29018,7 @@
       <c r="K737" s="6"/>
       <c r="L737" s="1"/>
     </row>
-    <row r="738" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A738" s="212" t="s">
         <v>955</v>
       </c>
@@ -29044,7 +29044,7 @@
       <c r="K738" s="6"/>
       <c r="L738" s="1"/>
     </row>
-    <row r="739" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A739" s="212" t="s">
         <v>955</v>
       </c>
@@ -29070,7 +29070,7 @@
       <c r="K739" s="6"/>
       <c r="L739" s="1"/>
     </row>
-    <row r="740" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A740" s="212" t="s">
         <v>955</v>
       </c>
@@ -29096,7 +29096,7 @@
       <c r="K740" s="6"/>
       <c r="L740" s="1"/>
     </row>
-    <row r="741" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A741" s="212" t="s">
         <v>955</v>
       </c>
@@ -29122,7 +29122,7 @@
       <c r="K741" s="6"/>
       <c r="L741" s="1"/>
     </row>
-    <row r="742" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A742" s="212" t="s">
         <v>929</v>
       </c>
@@ -29148,7 +29148,7 @@
       <c r="K742" s="6"/>
       <c r="L742" s="1"/>
     </row>
-    <row r="743" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A743" s="212" t="s">
         <v>998</v>
       </c>
@@ -29174,7 +29174,7 @@
       <c r="K743" s="6"/>
       <c r="L743" s="1"/>
     </row>
-    <row r="744" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A744" s="212" t="s">
         <v>999</v>
       </c>
@@ -29200,7 +29200,7 @@
       <c r="K744" s="6"/>
       <c r="L744" s="1"/>
     </row>
-    <row r="745" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A745" s="212" t="s">
         <v>999</v>
       </c>
@@ -29226,7 +29226,7 @@
       <c r="K745" s="6"/>
       <c r="L745" s="1"/>
     </row>
-    <row r="746" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A746" s="212" t="s">
         <v>999</v>
       </c>
@@ -29252,7 +29252,7 @@
       <c r="K746" s="6"/>
       <c r="L746" s="1"/>
     </row>
-    <row r="747" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A747" s="212" t="s">
         <v>1000</v>
       </c>
@@ -29278,7 +29278,7 @@
       <c r="K747" s="6"/>
       <c r="L747" s="1"/>
     </row>
-    <row r="748" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A748" s="212" t="s">
         <v>1000</v>
       </c>
@@ -29304,7 +29304,7 @@
       <c r="K748" s="6"/>
       <c r="L748" s="1"/>
     </row>
-    <row r="749" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A749" s="212" t="s">
         <v>1000</v>
       </c>
@@ -29330,7 +29330,7 @@
       <c r="K749" s="6"/>
       <c r="L749" s="1"/>
     </row>
-    <row r="750" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A750" s="212" t="s">
         <v>1001</v>
       </c>
@@ -29356,7 +29356,7 @@
       <c r="K750" s="6"/>
       <c r="L750" s="1"/>
     </row>
-    <row r="751" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A751" s="212" t="s">
         <v>1001</v>
       </c>
@@ -29382,7 +29382,7 @@
       <c r="K751" s="6"/>
       <c r="L751" s="1"/>
     </row>
-    <row r="752" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A752" s="212" t="s">
         <v>1001</v>
       </c>
@@ -29408,7 +29408,7 @@
       <c r="K752" s="6"/>
       <c r="L752" s="1"/>
     </row>
-    <row r="753" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A753" s="212" t="s">
         <v>1001</v>
       </c>
@@ -29438,7 +29438,7 @@
       <c r="K753" s="6"/>
       <c r="L753" s="1"/>
     </row>
-    <row r="754" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A754" s="212" t="s">
         <v>1001</v>
       </c>
@@ -29464,7 +29464,7 @@
       <c r="K754" s="6"/>
       <c r="L754" s="1"/>
     </row>
-    <row r="755" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A755" s="212" t="s">
         <v>900</v>
       </c>
@@ -29494,7 +29494,7 @@
       <c r="K755" s="6"/>
       <c r="L755" s="1"/>
     </row>
-    <row r="756" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A756" s="212" t="s">
         <v>900</v>
       </c>
@@ -29520,7 +29520,7 @@
       <c r="K756" s="6"/>
       <c r="L756" s="1"/>
     </row>
-    <row r="757" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A757" s="212" t="s">
         <v>900</v>
       </c>
@@ -29546,7 +29546,7 @@
       <c r="K757" s="6"/>
       <c r="L757" s="1"/>
     </row>
-    <row r="758" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A758" s="212" t="s">
         <v>900</v>
       </c>
@@ -29572,7 +29572,7 @@
       <c r="K758" s="6"/>
       <c r="L758" s="1"/>
     </row>
-    <row r="759" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A759" s="212" t="s">
         <v>900</v>
       </c>
@@ -29598,7 +29598,7 @@
       <c r="K759" s="6"/>
       <c r="L759" s="1"/>
     </row>
-    <row r="760" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A760" s="212" t="s">
         <v>900</v>
       </c>
@@ -29624,7 +29624,7 @@
       <c r="K760" s="6"/>
       <c r="L760" s="1"/>
     </row>
-    <row r="761" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A761" s="212" t="s">
         <v>900</v>
       </c>
@@ -29650,7 +29650,7 @@
       <c r="K761" s="6"/>
       <c r="L761" s="1"/>
     </row>
-    <row r="762" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A762" s="212" t="s">
         <v>900</v>
       </c>
@@ -29676,7 +29676,7 @@
       <c r="K762" s="6"/>
       <c r="L762" s="1"/>
     </row>
-    <row r="763" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A763" s="212" t="s">
         <v>999</v>
       </c>
@@ -29702,7 +29702,7 @@
       <c r="K763" s="6"/>
       <c r="L763" s="1"/>
     </row>
-    <row r="764" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A764" s="212" t="s">
         <v>927</v>
       </c>
@@ -29728,7 +29728,7 @@
       <c r="K764" s="6"/>
       <c r="L764" s="1"/>
     </row>
-    <row r="765" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A765" s="212" t="s">
         <v>927</v>
       </c>
@@ -29754,7 +29754,7 @@
       <c r="K765" s="6"/>
       <c r="L765" s="1"/>
     </row>
-    <row r="766" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A766" s="212" t="s">
         <v>878</v>
       </c>
@@ -29780,7 +29780,7 @@
       <c r="K766" s="6"/>
       <c r="L766" s="1"/>
     </row>
-    <row r="767" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A767" s="212" t="s">
         <v>878</v>
       </c>
@@ -29806,7 +29806,7 @@
       <c r="K767" s="6"/>
       <c r="L767" s="1"/>
     </row>
-    <row r="768" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A768" s="212" t="s">
         <v>925</v>
       </c>
@@ -29832,7 +29832,7 @@
       <c r="K768" s="6"/>
       <c r="L768" s="1"/>
     </row>
-    <row r="769" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A769" s="212" t="s">
         <v>900</v>
       </c>
@@ -29858,7 +29858,7 @@
       <c r="K769" s="6"/>
       <c r="L769" s="1"/>
     </row>
-    <row r="770" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A770" s="212" t="s">
         <v>996</v>
       </c>
@@ -29884,7 +29884,7 @@
       <c r="K770" s="6"/>
       <c r="L770" s="1"/>
     </row>
-    <row r="771" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A771" s="212" t="s">
         <v>996</v>
       </c>
@@ -29910,7 +29910,7 @@
       <c r="K771" s="6"/>
       <c r="L771" s="1"/>
     </row>
-    <row r="772" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A772" s="212" t="s">
         <v>996</v>
       </c>
@@ -29936,7 +29936,7 @@
       <c r="K772" s="6"/>
       <c r="L772" s="1"/>
     </row>
-    <row r="773" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A773" s="212" t="s">
         <v>996</v>
       </c>
@@ -29962,7 +29962,7 @@
       <c r="K773" s="6"/>
       <c r="L773" s="1"/>
     </row>
-    <row r="774" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A774" s="212" t="s">
         <v>1002</v>
       </c>
@@ -29988,7 +29988,7 @@
       <c r="K774" s="6"/>
       <c r="L774" s="1"/>
     </row>
-    <row r="775" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A775" s="212" t="s">
         <v>1002</v>
       </c>
@@ -30014,7 +30014,7 @@
       <c r="K775" s="6"/>
       <c r="L775" s="1"/>
     </row>
-    <row r="776" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A776" s="212" t="s">
         <v>1002</v>
       </c>
@@ -30040,7 +30040,7 @@
       <c r="K776" s="6"/>
       <c r="L776" s="1"/>
     </row>
-    <row r="777" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A777" s="212" t="s">
         <v>1003</v>
       </c>
@@ -30070,7 +30070,7 @@
       <c r="K777" s="6"/>
       <c r="L777" s="1"/>
     </row>
-    <row r="778" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A778" s="212" t="s">
         <v>1003</v>
       </c>
@@ -30100,7 +30100,7 @@
       <c r="K778" s="6"/>
       <c r="L778" s="1"/>
     </row>
-    <row r="779" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A779" s="212" t="s">
         <v>1004</v>
       </c>
@@ -30126,7 +30126,7 @@
       <c r="K779" s="6"/>
       <c r="L779" s="1"/>
     </row>
-    <row r="780" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A780" s="212" t="s">
         <v>1004</v>
       </c>
@@ -30152,7 +30152,7 @@
       <c r="K780" s="6"/>
       <c r="L780" s="1"/>
     </row>
-    <row r="781" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A781" s="212" t="s">
         <v>1004</v>
       </c>
@@ -30178,7 +30178,7 @@
       <c r="K781" s="6"/>
       <c r="L781" s="1"/>
     </row>
-    <row r="782" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A782" s="212" t="s">
         <v>1004</v>
       </c>
@@ -30204,7 +30204,7 @@
       <c r="K782" s="6"/>
       <c r="L782" s="1"/>
     </row>
-    <row r="783" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A783" s="212" t="s">
         <v>1004</v>
       </c>
@@ -30230,7 +30230,7 @@
       <c r="K783" s="6"/>
       <c r="L783" s="1"/>
     </row>
-    <row r="784" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A784" s="212" t="s">
         <v>952</v>
       </c>
@@ -30256,7 +30256,7 @@
       <c r="K784" s="6"/>
       <c r="L784" s="1"/>
     </row>
-    <row r="785" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A785" s="212" t="s">
         <v>952</v>
       </c>
@@ -30282,7 +30282,7 @@
       <c r="K785" s="6"/>
       <c r="L785" s="1"/>
     </row>
-    <row r="786" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A786" s="212" t="s">
         <v>952</v>
       </c>
@@ -30308,7 +30308,7 @@
       <c r="K786" s="6"/>
       <c r="L786" s="1"/>
     </row>
-    <row r="787" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A787" s="212" t="s">
         <v>952</v>
       </c>
@@ -30338,7 +30338,7 @@
       <c r="K787" s="6"/>
       <c r="L787" s="1"/>
     </row>
-    <row r="788" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A788" s="212" t="s">
         <v>936</v>
       </c>
@@ -30364,7 +30364,7 @@
       <c r="K788" s="6"/>
       <c r="L788" s="1"/>
     </row>
-    <row r="789" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A789" s="212" t="s">
         <v>936</v>
       </c>
@@ -30394,7 +30394,7 @@
       <c r="K789" s="6"/>
       <c r="L789" s="1"/>
     </row>
-    <row r="790" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A790" s="212" t="s">
         <v>936</v>
       </c>
@@ -30420,7 +30420,7 @@
       <c r="K790" s="6"/>
       <c r="L790" s="1"/>
     </row>
-    <row r="791" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A791" s="212" t="s">
         <v>936</v>
       </c>
@@ -30450,7 +30450,7 @@
       <c r="K791" s="6"/>
       <c r="L791" s="1"/>
     </row>
-    <row r="792" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A792" s="212" t="s">
         <v>936</v>
       </c>
@@ -30476,7 +30476,7 @@
       <c r="K792" s="6"/>
       <c r="L792" s="1"/>
     </row>
-    <row r="793" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A793" s="212" t="s">
         <v>1005</v>
       </c>
@@ -30502,7 +30502,7 @@
       <c r="K793" s="6"/>
       <c r="L793" s="1"/>
     </row>
-    <row r="794" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A794" s="212" t="s">
         <v>1005</v>
       </c>
@@ -30528,7 +30528,7 @@
       <c r="K794" s="6"/>
       <c r="L794" s="1"/>
     </row>
-    <row r="795" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A795" s="212" t="s">
         <v>1005</v>
       </c>
@@ -30554,7 +30554,7 @@
       <c r="K795" s="6"/>
       <c r="L795" s="1"/>
     </row>
-    <row r="796" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A796" s="212" t="s">
         <v>876</v>
       </c>
@@ -30580,7 +30580,7 @@
       <c r="K796" s="6"/>
       <c r="L796" s="1"/>
     </row>
-    <row r="797" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A797" s="212" t="s">
         <v>1006</v>
       </c>
@@ -30606,7 +30606,7 @@
       <c r="K797" s="6"/>
       <c r="L797" s="1"/>
     </row>
-    <row r="798" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A798" s="212" t="s">
         <v>1006</v>
       </c>
@@ -30632,7 +30632,7 @@
       <c r="K798" s="6"/>
       <c r="L798" s="1"/>
     </row>
-    <row r="799" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A799" s="212" t="s">
         <v>1006</v>
       </c>
@@ -30658,7 +30658,7 @@
       <c r="K799" s="6"/>
       <c r="L799" s="1"/>
     </row>
-    <row r="800" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A800" s="212" t="s">
         <v>1006</v>
       </c>
@@ -30688,7 +30688,7 @@
       <c r="K800" s="6"/>
       <c r="L800" s="1"/>
     </row>
-    <row r="801" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A801" s="212" t="s">
         <v>1006</v>
       </c>
@@ -30714,7 +30714,7 @@
       <c r="K801" s="6"/>
       <c r="L801" s="1"/>
     </row>
-    <row r="802" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A802" s="212" t="s">
         <v>1006</v>
       </c>
@@ -30740,7 +30740,7 @@
       <c r="K802" s="6"/>
       <c r="L802" s="1"/>
     </row>
-    <row r="803" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A803" s="212" t="s">
         <v>968</v>
       </c>
@@ -30766,7 +30766,7 @@
       <c r="K803" s="6"/>
       <c r="L803" s="1"/>
     </row>
-    <row r="804" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A804" s="212" t="s">
         <v>968</v>
       </c>
@@ -30792,7 +30792,7 @@
       <c r="K804" s="6"/>
       <c r="L804" s="1"/>
     </row>
-    <row r="805" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A805" s="212" t="s">
         <v>968</v>
       </c>
@@ -30818,7 +30818,7 @@
       <c r="K805" s="6"/>
       <c r="L805" s="1"/>
     </row>
-    <row r="806" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A806" s="212" t="s">
         <v>927</v>
       </c>
@@ -30844,7 +30844,7 @@
       <c r="K806" s="6"/>
       <c r="L806" s="1"/>
     </row>
-    <row r="807" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A807" s="212" t="s">
         <v>927</v>
       </c>
@@ -30870,7 +30870,7 @@
       <c r="K807" s="6"/>
       <c r="L807" s="1"/>
     </row>
-    <row r="808" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A808" s="212" t="s">
         <v>927</v>
       </c>
@@ -30896,7 +30896,7 @@
       <c r="K808" s="6"/>
       <c r="L808" s="1"/>
     </row>
-    <row r="809" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A809" s="212" t="s">
         <v>927</v>
       </c>
@@ -30922,7 +30922,7 @@
       <c r="K809" s="6"/>
       <c r="L809" s="1"/>
     </row>
-    <row r="810" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A810" s="212" t="s">
         <v>955</v>
       </c>
@@ -30948,7 +30948,7 @@
       <c r="K810" s="6"/>
       <c r="L810" s="1"/>
     </row>
-    <row r="811" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A811" s="212" t="s">
         <v>876</v>
       </c>
@@ -30974,7 +30974,7 @@
       <c r="K811" s="6"/>
       <c r="L811" s="1"/>
     </row>
-    <row r="812" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A812" s="212" t="s">
         <v>891</v>
       </c>
@@ -31000,7 +31000,7 @@
       <c r="K812" s="6"/>
       <c r="L812" s="1"/>
     </row>
-    <row r="813" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A813" s="212" t="s">
         <v>891</v>
       </c>
@@ -31026,7 +31026,7 @@
       <c r="K813" s="6"/>
       <c r="L813" s="1"/>
     </row>
-    <row r="814" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A814" s="212" t="s">
         <v>878</v>
       </c>
@@ -31052,7 +31052,7 @@
       <c r="K814" s="6"/>
       <c r="L814" s="1"/>
     </row>
-    <row r="815" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A815" s="212" t="s">
         <v>878</v>
       </c>
@@ -31082,7 +31082,7 @@
       <c r="K815" s="6"/>
       <c r="L815" s="1"/>
     </row>
-    <row r="816" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A816" s="212" t="s">
         <v>878</v>
       </c>
@@ -31112,7 +31112,7 @@
       <c r="K816" s="6"/>
       <c r="L816" s="1"/>
     </row>
-    <row r="817" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A817" s="212" t="s">
         <v>878</v>
       </c>
@@ -31138,7 +31138,7 @@
       <c r="K817" s="6"/>
       <c r="L817" s="1"/>
     </row>
-    <row r="818" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A818" s="212" t="s">
         <v>878</v>
       </c>
@@ -31168,7 +31168,7 @@
       <c r="K818" s="6"/>
       <c r="L818" s="1"/>
     </row>
-    <row r="819" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A819" s="212" t="s">
         <v>878</v>
       </c>
@@ -31194,7 +31194,7 @@
       <c r="K819" s="6"/>
       <c r="L819" s="1"/>
     </row>
-    <row r="820" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A820" s="212" t="s">
         <v>878</v>
       </c>
@@ -31220,7 +31220,7 @@
       <c r="K820" s="6"/>
       <c r="L820" s="1"/>
     </row>
-    <row r="821" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A821" s="212" t="s">
         <v>878</v>
       </c>
@@ -31250,7 +31250,7 @@
       <c r="K821" s="6"/>
       <c r="L821" s="1"/>
     </row>
-    <row r="822" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A822" s="212" t="s">
         <v>878</v>
       </c>
@@ -31276,7 +31276,7 @@
       <c r="K822" s="6"/>
       <c r="L822" s="1"/>
     </row>
-    <row r="823" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A823" s="212" t="s">
         <v>878</v>
       </c>
@@ -31302,7 +31302,7 @@
       <c r="K823" s="6"/>
       <c r="L823" s="1"/>
     </row>
-    <row r="824" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A824" s="212" t="s">
         <v>876</v>
       </c>
@@ -31328,7 +31328,7 @@
       <c r="K824" s="6"/>
       <c r="L824" s="1"/>
     </row>
-    <row r="825" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A825" s="212" t="s">
         <v>949</v>
       </c>
@@ -31354,7 +31354,7 @@
       <c r="K825" s="6"/>
       <c r="L825" s="1"/>
     </row>
-    <row r="826" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A826" s="212" t="s">
         <v>949</v>
       </c>
@@ -31380,7 +31380,7 @@
       <c r="K826" s="6"/>
       <c r="L826" s="1"/>
     </row>
-    <row r="827" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A827" s="212" t="s">
         <v>942</v>
       </c>
@@ -31406,7 +31406,7 @@
       <c r="K827" s="6"/>
       <c r="L827" s="1"/>
     </row>
-    <row r="828" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A828" s="212" t="s">
         <v>954</v>
       </c>
@@ -31432,7 +31432,7 @@
       <c r="K828" s="6"/>
       <c r="L828" s="1"/>
     </row>
-    <row r="829" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A829" s="212" t="s">
         <v>985</v>
       </c>
@@ -31458,7 +31458,7 @@
       <c r="K829" s="6"/>
       <c r="L829" s="1"/>
     </row>
-    <row r="830" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A830" s="212" t="s">
         <v>985</v>
       </c>
@@ -31484,7 +31484,7 @@
       <c r="K830" s="6"/>
       <c r="L830" s="1"/>
     </row>
-    <row r="831" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A831" s="212" t="s">
         <v>985</v>
       </c>
@@ -31510,7 +31510,7 @@
       <c r="K831" s="6"/>
       <c r="L831" s="1"/>
     </row>
-    <row r="832" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A832" s="212" t="s">
         <v>985</v>
       </c>
@@ -31534,7 +31534,7 @@
       <c r="K832" s="6"/>
       <c r="L832" s="1"/>
     </row>
-    <row r="833" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A833" s="212" t="s">
         <v>985</v>
       </c>
@@ -31560,7 +31560,7 @@
       <c r="K833" s="6"/>
       <c r="L833" s="1"/>
     </row>
-    <row r="834" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A834" s="212" t="s">
         <v>985</v>
       </c>
@@ -31586,7 +31586,7 @@
       <c r="K834" s="6"/>
       <c r="L834" s="1"/>
     </row>
-    <row r="835" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A835" s="212" t="s">
         <v>985</v>
       </c>
@@ -31612,7 +31612,7 @@
       <c r="K835" s="6"/>
       <c r="L835" s="1"/>
     </row>
-    <row r="836" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A836" s="212" t="s">
         <v>1006</v>
       </c>
@@ -31638,7 +31638,7 @@
       <c r="K836" s="6"/>
       <c r="L836" s="1"/>
     </row>
-    <row r="837" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A837" s="212" t="s">
         <v>1006</v>
       </c>
@@ -31664,7 +31664,7 @@
       <c r="K837" s="6"/>
       <c r="L837" s="1"/>
     </row>
-    <row r="838" spans="1:12" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:12" ht="24.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A838" s="212" t="s">
         <v>957</v>
       </c>
@@ -31690,7 +31690,7 @@
       <c r="K838" s="6"/>
       <c r="L838" s="1"/>
     </row>
-    <row r="839" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:12" ht="23.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A839" s="212" t="s">
         <v>933</v>
       </c>
@@ -31718,7 +31718,7 @@
       <c r="K839" s="6"/>
       <c r="L839" s="1"/>
     </row>
-    <row r="840" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:12" ht="23.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A840" s="212" t="s">
         <v>933</v>
       </c>
@@ -31750,7 +31750,7 @@
       <c r="K840" s="6"/>
       <c r="L840" s="1"/>
     </row>
-    <row r="841" spans="1:12" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:12" ht="28.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A841" s="212" t="s">
         <v>1168</v>
       </c>
@@ -31782,7 +31782,7 @@
       <c r="K841" s="6"/>
       <c r="L841" s="1"/>
     </row>
-    <row r="842" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:12" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A842" s="212" t="s">
         <v>1168</v>
       </c>
@@ -31810,7 +31810,7 @@
       <c r="K842" s="6"/>
       <c r="L842" s="1"/>
     </row>
-    <row r="843" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A843" s="212" t="s">
         <v>1168</v>
       </c>
@@ -31838,7 +31838,7 @@
       <c r="K843" s="6"/>
       <c r="L843" s="1"/>
     </row>
-    <row r="844" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A844" s="212" t="s">
         <v>1168</v>
       </c>
@@ -31866,7 +31866,7 @@
       <c r="K844" s="6"/>
       <c r="L844" s="1"/>
     </row>
-    <row r="845" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A845" s="212" t="s">
         <v>1168</v>
       </c>
@@ -31898,7 +31898,7 @@
       <c r="K845" s="6"/>
       <c r="L845" s="1"/>
     </row>
-    <row r="846" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A846" s="212" t="s">
         <v>1168</v>
       </c>
@@ -31926,7 +31926,7 @@
       <c r="K846" s="6"/>
       <c r="L846" s="1"/>
     </row>
-    <row r="847" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A847" s="212" t="s">
         <v>1168</v>
       </c>
@@ -31958,7 +31958,7 @@
       <c r="K847" s="6"/>
       <c r="L847" s="1"/>
     </row>
-    <row r="848" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A848" s="212" t="s">
         <v>1168</v>
       </c>
@@ -31986,7 +31986,7 @@
       <c r="K848" s="6"/>
       <c r="L848" s="1"/>
     </row>
-    <row r="849" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A849" s="212" t="s">
         <v>884</v>
       </c>
@@ -32014,7 +32014,7 @@
       <c r="K849" s="6"/>
       <c r="L849" s="1"/>
     </row>
-    <row r="850" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A850" s="212" t="s">
         <v>884</v>
       </c>
@@ -32042,7 +32042,7 @@
       <c r="K850" s="6"/>
       <c r="L850" s="1"/>
     </row>
-    <row r="851" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A851" s="212" t="s">
         <v>884</v>
       </c>
@@ -32070,7 +32070,7 @@
       <c r="K851" s="6"/>
       <c r="L851" s="1"/>
     </row>
-    <row r="852" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A852" s="212" t="s">
         <v>884</v>
       </c>
@@ -32098,7 +32098,7 @@
       <c r="K852" s="6"/>
       <c r="L852" s="1"/>
     </row>
-    <row r="853" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A853" s="212" t="s">
         <v>884</v>
       </c>
@@ -32126,7 +32126,7 @@
       <c r="K853" s="6"/>
       <c r="L853" s="1"/>
     </row>
-    <row r="854" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A854" s="212" t="s">
         <v>884</v>
       </c>
@@ -32154,7 +32154,7 @@
       <c r="K854" s="6"/>
       <c r="L854" s="1"/>
     </row>
-    <row r="855" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A855" s="212" t="s">
         <v>884</v>
       </c>
@@ -32182,7 +32182,7 @@
       <c r="K855" s="6"/>
       <c r="L855" s="1"/>
     </row>
-    <row r="856" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A856" s="212" t="s">
         <v>892</v>
       </c>
@@ -32210,7 +32210,7 @@
       <c r="K856" s="6"/>
       <c r="L856" s="1"/>
     </row>
-    <row r="857" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A857" s="212" t="s">
         <v>892</v>
       </c>
@@ -32238,7 +32238,7 @@
       <c r="K857" s="6"/>
       <c r="L857" s="1"/>
     </row>
-    <row r="858" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A858" s="212" t="s">
         <v>892</v>
       </c>
@@ -32270,7 +32270,7 @@
       <c r="K858" s="6"/>
       <c r="L858" s="1"/>
     </row>
-    <row r="859" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A859" s="212" t="s">
         <v>892</v>
       </c>
@@ -32298,7 +32298,7 @@
       <c r="K859" s="6"/>
       <c r="L859" s="1"/>
     </row>
-    <row r="860" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A860" s="212" t="s">
         <v>892</v>
       </c>
@@ -32328,7 +32328,7 @@
       <c r="K860" s="6"/>
       <c r="L860" s="1"/>
     </row>
-    <row r="861" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A861" s="212" t="s">
         <v>892</v>
       </c>
@@ -32356,7 +32356,7 @@
       <c r="K861" s="6"/>
       <c r="L861" s="1"/>
     </row>
-    <row r="862" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A862" s="212" t="s">
         <v>892</v>
       </c>
@@ -32384,7 +32384,7 @@
       <c r="K862" s="6"/>
       <c r="L862" s="1"/>
     </row>
-    <row r="863" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A863" s="212" t="s">
         <v>892</v>
       </c>
@@ -32412,7 +32412,7 @@
       <c r="K863" s="6"/>
       <c r="L863" s="1"/>
     </row>
-    <row r="864" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A864" s="212" t="s">
         <v>894</v>
       </c>
@@ -32440,7 +32440,7 @@
       <c r="K864" s="6"/>
       <c r="L864" s="1"/>
     </row>
-    <row r="865" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A865" s="212" t="s">
         <v>894</v>
       </c>
@@ -32468,7 +32468,7 @@
       <c r="K865" s="6"/>
       <c r="L865" s="1"/>
     </row>
-    <row r="866" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A866" s="212" t="s">
         <v>894</v>
       </c>
@@ -32496,7 +32496,7 @@
       <c r="K866" s="6"/>
       <c r="L866" s="1"/>
     </row>
-    <row r="867" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A867" s="212" t="s">
         <v>880</v>
       </c>
@@ -32524,7 +32524,7 @@
       <c r="K867" s="6"/>
       <c r="L867" s="1"/>
     </row>
-    <row r="868" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A868" s="212" t="s">
         <v>880</v>
       </c>
@@ -32556,7 +32556,7 @@
       <c r="K868" s="6"/>
       <c r="L868" s="1"/>
     </row>
-    <row r="869" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A869" s="212" t="s">
         <v>1169</v>
       </c>
@@ -32584,7 +32584,7 @@
       <c r="K869" s="6"/>
       <c r="L869" s="1"/>
     </row>
-    <row r="870" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A870" s="212" t="s">
         <v>1169</v>
       </c>
@@ -32650,7 +32650,7 @@
       <c r="K871" s="7"/>
       <c r="L871" s="1"/>
     </row>
-    <row r="872" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A872" s="212" t="s">
         <v>936</v>
       </c>
@@ -32678,7 +32678,7 @@
       <c r="K872" s="6"/>
       <c r="L872" s="1"/>
     </row>
-    <row r="873" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A873" s="212" t="s">
         <v>1000</v>
       </c>
@@ -32706,7 +32706,7 @@
       <c r="K873" s="6"/>
       <c r="L873" s="1"/>
     </row>
-    <row r="874" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A874" s="212" t="s">
         <v>1000</v>
       </c>
@@ -32734,7 +32734,7 @@
       <c r="K874" s="6"/>
       <c r="L874" s="1"/>
     </row>
-    <row r="875" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A875" s="212" t="s">
         <v>1000</v>
       </c>
@@ -32762,7 +32762,7 @@
       <c r="K875" s="6"/>
       <c r="L875" s="1"/>
     </row>
-    <row r="876" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A876" s="212" t="s">
         <v>1000</v>
       </c>
@@ -32790,7 +32790,7 @@
       <c r="K876" s="6"/>
       <c r="L876" s="1"/>
     </row>
-    <row r="877" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A877" s="212" t="s">
         <v>1000</v>
       </c>
@@ -32818,7 +32818,7 @@
       <c r="K877" s="6"/>
       <c r="L877" s="1"/>
     </row>
-    <row r="878" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A878" s="212" t="s">
         <v>956</v>
       </c>
@@ -32846,7 +32846,7 @@
       <c r="K878" s="6"/>
       <c r="L878" s="1"/>
     </row>
-    <row r="879" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A879" s="212" t="s">
         <v>956</v>
       </c>
@@ -32874,7 +32874,7 @@
       <c r="K879" s="6"/>
       <c r="L879" s="1"/>
     </row>
-    <row r="880" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A880" s="212" t="s">
         <v>1170</v>
       </c>
@@ -32902,7 +32902,7 @@
       <c r="K880" s="6"/>
       <c r="L880" s="1"/>
     </row>
-    <row r="881" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A881" s="212" t="s">
         <v>886</v>
       </c>
@@ -32930,7 +32930,7 @@
       <c r="K881" s="6"/>
       <c r="L881" s="1"/>
     </row>
-    <row r="882" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A882" s="212" t="s">
         <v>886</v>
       </c>
@@ -32960,7 +32960,7 @@
       <c r="K882" s="6"/>
       <c r="L882" s="1"/>
     </row>
-    <row r="883" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A883" s="212" t="s">
         <v>942</v>
       </c>
@@ -32988,7 +32988,7 @@
       <c r="K883" s="6"/>
       <c r="L883" s="1"/>
     </row>
-    <row r="884" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A884" s="212" t="s">
         <v>900</v>
       </c>
@@ -33016,7 +33016,7 @@
       <c r="K884" s="6"/>
       <c r="L884" s="1"/>
     </row>
-    <row r="885" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A885" s="212" t="s">
         <v>932</v>
       </c>
@@ -33044,7 +33044,7 @@
       <c r="K885" s="6"/>
       <c r="L885" s="1"/>
     </row>
-    <row r="886" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A886" s="212" t="s">
         <v>932</v>
       </c>
@@ -33072,7 +33072,7 @@
       <c r="K886" s="6"/>
       <c r="L886" s="1"/>
     </row>
-    <row r="887" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A887" s="212" t="s">
         <v>932</v>
       </c>
@@ -33100,7 +33100,7 @@
       <c r="K887" s="6"/>
       <c r="L887" s="1"/>
     </row>
-    <row r="888" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A888" s="212" t="s">
         <v>932</v>
       </c>
@@ -33128,7 +33128,7 @@
       <c r="K888" s="6"/>
       <c r="L888" s="1"/>
     </row>
-    <row r="889" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A889" s="212" t="s">
         <v>932</v>
       </c>
@@ -33156,7 +33156,7 @@
       <c r="K889" s="6"/>
       <c r="L889" s="1"/>
     </row>
-    <row r="890" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A890" s="212" t="s">
         <v>1006</v>
       </c>
@@ -33184,7 +33184,7 @@
       <c r="K890" s="6"/>
       <c r="L890" s="1"/>
     </row>
-    <row r="891" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A891" s="212" t="s">
         <v>1006</v>
       </c>
@@ -33212,7 +33212,7 @@
       <c r="K891" s="6"/>
       <c r="L891" s="1"/>
     </row>
-    <row r="892" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A892" s="212" t="s">
         <v>1006</v>
       </c>
@@ -33240,7 +33240,7 @@
       <c r="K892" s="6"/>
       <c r="L892" s="1"/>
     </row>
-    <row r="893" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A893" s="212" t="s">
         <v>1006</v>
       </c>
@@ -33268,7 +33268,7 @@
       <c r="K893" s="6"/>
       <c r="L893" s="1"/>
     </row>
-    <row r="894" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A894" s="212" t="s">
         <v>1006</v>
       </c>
@@ -33296,7 +33296,7 @@
       <c r="K894" s="6"/>
       <c r="L894" s="1"/>
     </row>
-    <row r="895" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A895" s="212" t="s">
         <v>1006</v>
       </c>
@@ -33324,7 +33324,7 @@
       <c r="K895" s="3"/>
       <c r="L895" s="1"/>
     </row>
-    <row r="896" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A896" s="213" t="s">
         <v>1002</v>
       </c>
@@ -33352,7 +33352,7 @@
       <c r="K896" s="3"/>
       <c r="L896" s="1"/>
     </row>
-    <row r="897" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A897" s="213" t="s">
         <v>933</v>
       </c>
@@ -33380,7 +33380,7 @@
       <c r="K897" s="3"/>
       <c r="L897" s="1"/>
     </row>
-    <row r="898" spans="1:12" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:12" ht="21.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A898" s="213" t="s">
         <v>933</v>
       </c>
@@ -33408,7 +33408,7 @@
       <c r="K898" s="3"/>
       <c r="L898" s="1"/>
     </row>
-    <row r="899" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A899" s="213" t="s">
         <v>933</v>
       </c>
@@ -33436,7 +33436,7 @@
       <c r="K899" s="3"/>
       <c r="L899" s="1"/>
     </row>
-    <row r="900" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A900" s="212" t="s">
         <v>985</v>
       </c>
@@ -33464,7 +33464,7 @@
       <c r="K900" s="8"/>
       <c r="L900" s="1"/>
     </row>
-    <row r="901" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A901" s="212" t="s">
         <v>886</v>
       </c>
@@ -33492,7 +33492,7 @@
       <c r="K901" s="7"/>
       <c r="L901" s="1"/>
     </row>
-    <row r="902" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A902" s="212" t="s">
         <v>886</v>
       </c>
@@ -33520,7 +33520,7 @@
       <c r="K902" s="7"/>
       <c r="L902" s="1"/>
     </row>
-    <row r="903" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A903" s="212" t="s">
         <v>886</v>
       </c>
@@ -33548,7 +33548,7 @@
       <c r="K903" s="8"/>
       <c r="L903" s="1"/>
     </row>
-    <row r="904" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A904" s="212" t="s">
         <v>886</v>
       </c>
@@ -33576,7 +33576,7 @@
       <c r="K904" s="7"/>
       <c r="L904" s="1"/>
     </row>
-    <row r="905" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A905" s="212" t="s">
         <v>886</v>
       </c>
@@ -33604,7 +33604,7 @@
       <c r="K905" s="7"/>
       <c r="L905" s="1"/>
     </row>
-    <row r="906" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:12" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A906" s="212" t="s">
         <v>886</v>
       </c>
@@ -33632,7 +33632,7 @@
       <c r="K906" s="7"/>
       <c r="L906" s="1"/>
     </row>
-    <row r="907" spans="1:12" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:12" ht="24.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A907" s="212" t="s">
         <v>886</v>
       </c>
@@ -33660,7 +33660,7 @@
       <c r="K907" s="7"/>
       <c r="L907" s="1"/>
     </row>
-    <row r="908" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:12" ht="23.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A908" s="212" t="s">
         <v>878</v>
       </c>
@@ -33688,7 +33688,7 @@
       <c r="K908" s="7"/>
       <c r="L908" s="1"/>
     </row>
-    <row r="909" spans="1:12" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:12" ht="22.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A909" s="212" t="s">
         <v>878</v>
       </c>
@@ -33716,7 +33716,7 @@
       <c r="K909" s="7"/>
       <c r="L909" s="1"/>
     </row>
-    <row r="910" spans="1:12" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:12" ht="22.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A910" s="212" t="s">
         <v>878</v>
       </c>
@@ -33744,7 +33744,7 @@
       <c r="K910" s="7"/>
       <c r="L910" s="1"/>
     </row>
-    <row r="911" spans="1:12" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:12" ht="22.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A911" s="212" t="s">
         <v>878</v>
       </c>
@@ -33772,7 +33772,7 @@
       <c r="K911" s="7"/>
       <c r="L911" s="1"/>
     </row>
-    <row r="912" spans="1:12" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:12" ht="23.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A912" s="212" t="s">
         <v>878</v>
       </c>
@@ -33800,7 +33800,7 @@
       <c r="K912" s="7"/>
       <c r="L912" s="1"/>
     </row>
-    <row r="913" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A913" s="212" t="s">
         <v>878</v>
       </c>
@@ -33828,7 +33828,7 @@
       <c r="K913" s="7"/>
       <c r="L913" s="1"/>
     </row>
-    <row r="914" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A914" s="212" t="s">
         <v>878</v>
       </c>
@@ -33856,7 +33856,7 @@
       <c r="K914" s="7"/>
       <c r="L914" s="1"/>
     </row>
-    <row r="915" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A915" s="212" t="s">
         <v>878</v>
       </c>
@@ -33884,7 +33884,7 @@
       <c r="K915" s="7"/>
       <c r="L915" s="1"/>
     </row>
-    <row r="916" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A916" s="212"/>
       <c r="B916" s="68"/>
       <c r="C916" s="56"/>
@@ -33902,7 +33902,7 @@
       <c r="K916" s="7"/>
       <c r="L916" s="1"/>
     </row>
-    <row r="917" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B917" s="70"/>
       <c r="C917" s="71"/>
       <c r="D917" s="168"/>
@@ -33919,7 +33919,7 @@
       <c r="K917" s="3"/>
       <c r="L917" s="1"/>
     </row>
-    <row r="918" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B918" s="70"/>
       <c r="C918" s="71"/>
       <c r="D918" s="168"/>
@@ -33936,7 +33936,7 @@
       <c r="K918" s="3"/>
       <c r="L918" s="1"/>
     </row>
-    <row r="919" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A919" s="212"/>
       <c r="B919" s="69"/>
       <c r="C919" s="55"/>
@@ -33954,7 +33954,7 @@
       <c r="K919" s="7"/>
       <c r="L919" s="1"/>
     </row>
-    <row r="920" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A920" s="212"/>
       <c r="B920" s="68"/>
       <c r="C920" s="56"/>
@@ -33972,7 +33972,7 @@
       <c r="K920" s="7"/>
       <c r="L920" s="1"/>
     </row>
-    <row r="921" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A921" s="212" t="s">
         <v>971</v>
       </c>
@@ -34002,7 +34002,7 @@
       <c r="K921" s="7"/>
       <c r="L921" s="1"/>
     </row>
-    <row r="922" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B922" s="70"/>
       <c r="C922" s="71"/>
       <c r="D922" s="168"/>
@@ -34019,7 +34019,7 @@
       <c r="K922" s="3"/>
       <c r="L922" s="1"/>
     </row>
-    <row r="923" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A923" s="212"/>
       <c r="B923" s="68"/>
       <c r="C923" s="56"/>
@@ -34037,7 +34037,7 @@
       <c r="K923" s="6"/>
       <c r="L923" s="1"/>
     </row>
-    <row r="924" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A924" s="212"/>
       <c r="B924" s="68"/>
       <c r="C924" s="56"/>
@@ -34055,7 +34055,7 @@
       <c r="K924" s="7"/>
       <c r="L924" s="1"/>
     </row>
-    <row r="925" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A925" s="212"/>
       <c r="B925" s="68"/>
       <c r="C925" s="56"/>
@@ -34073,7 +34073,7 @@
       <c r="K925" s="7"/>
       <c r="L925" s="1"/>
     </row>
-    <row r="926" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B926" s="70"/>
       <c r="C926" s="71"/>
       <c r="D926" s="168"/>
@@ -34090,7 +34090,7 @@
       <c r="K926" s="3"/>
       <c r="L926" s="1"/>
     </row>
-    <row r="927" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A927" s="212"/>
       <c r="B927" s="69"/>
       <c r="C927" s="55"/>
@@ -34108,7 +34108,7 @@
       <c r="K927" s="8"/>
       <c r="L927" s="1"/>
     </row>
-    <row r="928" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A928" s="212"/>
       <c r="B928" s="68"/>
       <c r="C928" s="56"/>
@@ -34126,7 +34126,7 @@
       <c r="K928" s="7"/>
       <c r="L928" s="1"/>
     </row>
-    <row r="929" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A929" s="212" t="s">
         <v>889</v>
       </c>
@@ -34158,7 +34158,7 @@
       <c r="K929" s="7"/>
       <c r="L929" s="1"/>
     </row>
-    <row r="930" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A930" s="212"/>
       <c r="B930" s="68"/>
       <c r="C930" s="56"/>
@@ -34176,7 +34176,7 @@
       <c r="K930" s="7"/>
       <c r="L930" s="1"/>
     </row>
-    <row r="931" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A931" s="212" t="s">
         <v>889</v>
       </c>
@@ -34208,7 +34208,7 @@
       <c r="K931" s="7"/>
       <c r="L931" s="1"/>
     </row>
-    <row r="932" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A932" s="212"/>
       <c r="B932" s="68"/>
       <c r="C932" s="56"/>
@@ -34226,7 +34226,7 @@
       <c r="K932" s="7"/>
       <c r="L932" s="1"/>
     </row>
-    <row r="933" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A933" s="212"/>
       <c r="B933" s="69"/>
       <c r="C933" s="55"/>
@@ -34244,7 +34244,7 @@
       <c r="K933" s="8"/>
       <c r="L933" s="1"/>
     </row>
-    <row r="934" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A934" s="212"/>
       <c r="B934" s="68"/>
       <c r="C934" s="56"/>
@@ -34262,7 +34262,7 @@
       <c r="K934" s="7"/>
       <c r="L934" s="1"/>
     </row>
-    <row r="935" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A935" s="212"/>
       <c r="B935" s="224"/>
       <c r="C935" s="225"/>
@@ -34280,7 +34280,7 @@
       <c r="K935" s="6"/>
       <c r="L935" s="1"/>
     </row>
-    <row r="936" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="936" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A936" s="212"/>
       <c r="B936" s="224"/>
       <c r="C936" s="225"/>
@@ -34298,7 +34298,7 @@
       <c r="K936" s="7"/>
       <c r="L936" s="1"/>
     </row>
-    <row r="937" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A937" s="212"/>
       <c r="B937" s="224"/>
       <c r="C937" s="225"/>
@@ -34316,7 +34316,7 @@
       <c r="K937" s="7"/>
       <c r="L937" s="1"/>
     </row>
-    <row r="938" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A938" s="212"/>
       <c r="B938" s="224"/>
       <c r="C938" s="225"/>
@@ -34334,7 +34334,7 @@
       <c r="K938" s="7"/>
       <c r="L938" s="1"/>
     </row>
-    <row r="939" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A939" s="212"/>
       <c r="B939" s="224"/>
       <c r="C939" s="225"/>
@@ -34352,7 +34352,7 @@
       <c r="K939" s="7"/>
       <c r="L939" s="1"/>
     </row>
-    <row r="940" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A940" s="212"/>
       <c r="B940" s="224"/>
       <c r="C940" s="225"/>
@@ -34370,7 +34370,7 @@
       <c r="K940" s="7"/>
       <c r="L940" s="1"/>
     </row>
-    <row r="941" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B941" s="227"/>
       <c r="C941" s="229"/>
       <c r="D941" s="231"/>
@@ -34387,7 +34387,7 @@
       <c r="K941" s="3"/>
       <c r="L941" s="1"/>
     </row>
-    <row r="942" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A942" s="213" t="s">
         <v>942</v>
       </c>
@@ -34419,7 +34419,7 @@
       <c r="K942" s="3"/>
       <c r="L942" s="1"/>
     </row>
-    <row r="943" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B943" s="227"/>
       <c r="C943" s="229"/>
       <c r="D943" s="231"/>
@@ -34436,7 +34436,7 @@
       <c r="K943" s="3"/>
       <c r="L943" s="1"/>
     </row>
-    <row r="944" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A944" s="212"/>
       <c r="B944" s="224"/>
       <c r="C944" s="225"/>
@@ -34454,7 +34454,7 @@
       <c r="K944" s="7"/>
       <c r="L944" s="1"/>
     </row>
-    <row r="945" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A945" s="212" t="s">
         <v>927</v>
       </c>
@@ -34484,7 +34484,7 @@
       <c r="K945" s="7"/>
       <c r="L945" s="1"/>
     </row>
-    <row r="946" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A946" s="212"/>
       <c r="B946" s="228"/>
       <c r="C946" s="230"/>
@@ -34502,7 +34502,7 @@
       <c r="K946" s="8"/>
       <c r="L946" s="1"/>
     </row>
-    <row r="947" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A947" s="212"/>
       <c r="B947" s="224"/>
       <c r="C947" s="225"/>
@@ -34520,7 +34520,7 @@
       <c r="K947" s="7"/>
       <c r="L947" s="1"/>
     </row>
-    <row r="948" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A948" s="212" t="s">
         <v>1168</v>
       </c>
@@ -34552,7 +34552,7 @@
       <c r="K948" s="84"/>
       <c r="L948" s="1"/>
     </row>
-    <row r="949" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A949" s="212"/>
       <c r="B949" s="228"/>
       <c r="C949" s="230"/>
@@ -34570,7 +34570,7 @@
       <c r="K949" s="7"/>
       <c r="L949" s="1"/>
     </row>
-    <row r="950" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A950" s="212"/>
       <c r="B950" s="224"/>
       <c r="C950" s="225"/>
@@ -34588,7 +34588,7 @@
       <c r="K950" s="7"/>
       <c r="L950" s="1"/>
     </row>
-    <row r="951" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B951" s="227"/>
       <c r="C951" s="229"/>
       <c r="D951" s="231"/>
@@ -34605,7 +34605,7 @@
       <c r="K951" s="3"/>
       <c r="L951" s="1"/>
     </row>
-    <row r="952" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B952" s="227"/>
       <c r="C952" s="229"/>
       <c r="D952" s="231"/>
@@ -34622,7 +34622,7 @@
       <c r="K952" s="3"/>
       <c r="L952" s="1"/>
     </row>
-    <row r="953" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A953" s="212"/>
       <c r="B953" s="224"/>
       <c r="C953" s="225"/>
@@ -34640,7 +34640,7 @@
       <c r="K953" s="7"/>
       <c r="L953" s="1"/>
     </row>
-    <row r="954" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A954" s="212"/>
       <c r="B954" s="224"/>
       <c r="C954" s="225"/>
@@ -34658,7 +34658,7 @@
       <c r="K954" s="6"/>
       <c r="L954" s="1"/>
     </row>
-    <row r="955" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="955" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A955" s="212"/>
       <c r="B955" s="224"/>
       <c r="C955" s="225"/>
@@ -34676,7 +34676,7 @@
       <c r="K955" s="6"/>
       <c r="L955" s="1"/>
     </row>
-    <row r="956" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="956" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A956" s="212"/>
       <c r="B956" s="224"/>
       <c r="C956" s="225"/>
@@ -34694,7 +34694,7 @@
       <c r="K956" s="6"/>
       <c r="L956" s="1"/>
     </row>
-    <row r="957" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A957" s="212"/>
       <c r="B957" s="224"/>
       <c r="C957" s="225"/>
@@ -34712,7 +34712,7 @@
       <c r="K957" s="6"/>
       <c r="L957" s="1"/>
     </row>
-    <row r="958" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A958" s="212"/>
       <c r="B958" s="224"/>
       <c r="C958" s="225"/>
@@ -34730,7 +34730,7 @@
       <c r="K958" s="6"/>
       <c r="L958" s="1"/>
     </row>
-    <row r="959" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="959" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A959" s="212"/>
       <c r="B959" s="224"/>
       <c r="C959" s="225"/>
@@ -34748,7 +34748,7 @@
       <c r="K959" s="6"/>
       <c r="L959" s="1"/>
     </row>
-    <row r="960" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="960" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A960" s="212"/>
       <c r="B960" s="224"/>
       <c r="C960" s="225"/>
@@ -34766,7 +34766,7 @@
       <c r="K960" s="7"/>
       <c r="L960" s="1"/>
     </row>
-    <row r="961" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A961" s="212"/>
       <c r="B961" s="224"/>
       <c r="C961" s="225"/>
@@ -34784,7 +34784,7 @@
       <c r="K961" s="7"/>
       <c r="L961" s="1"/>
     </row>
-    <row r="962" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="962" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A962" s="212"/>
       <c r="B962" s="224"/>
       <c r="C962" s="225"/>
@@ -34802,7 +34802,7 @@
       <c r="K962" s="7"/>
       <c r="L962" s="1"/>
     </row>
-    <row r="963" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A963" s="212"/>
       <c r="B963" s="224"/>
       <c r="C963" s="225"/>
@@ -34820,7 +34820,7 @@
       <c r="K963" s="7"/>
       <c r="L963" s="1"/>
     </row>
-    <row r="964" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A964" s="212"/>
       <c r="B964" s="224"/>
       <c r="C964" s="225"/>
@@ -34838,7 +34838,7 @@
       <c r="K964" s="7"/>
       <c r="L964" s="1"/>
     </row>
-    <row r="965" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A965" s="212"/>
       <c r="B965" s="224"/>
       <c r="C965" s="225"/>
@@ -34856,7 +34856,7 @@
       <c r="K965" s="7"/>
       <c r="L965" s="1"/>
     </row>
-    <row r="966" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A966" s="212"/>
       <c r="B966" s="224"/>
       <c r="C966" s="225"/>
@@ -34874,7 +34874,7 @@
       <c r="K966" s="7"/>
       <c r="L966" s="1"/>
     </row>
-    <row r="967" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B967" s="227"/>
       <c r="C967" s="229"/>
       <c r="D967" s="231"/>
@@ -34891,7 +34891,7 @@
       <c r="K967" s="3"/>
       <c r="L967" s="1"/>
     </row>
-    <row r="968" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B968" s="227"/>
       <c r="C968" s="229"/>
       <c r="D968" s="231"/>
@@ -34908,7 +34908,7 @@
       <c r="K968" s="3"/>
       <c r="L968" s="1"/>
     </row>
-    <row r="969" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B969" s="227"/>
       <c r="C969" s="229"/>
       <c r="D969" s="231"/>
@@ -34925,7 +34925,7 @@
       <c r="K969" s="3"/>
       <c r="L969" s="1"/>
     </row>
-    <row r="970" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B970" s="227"/>
       <c r="C970" s="229"/>
       <c r="D970" s="231"/>
@@ -34942,7 +34942,7 @@
       <c r="K970" s="3"/>
       <c r="L970" s="1"/>
     </row>
-    <row r="971" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A971" s="212"/>
       <c r="B971" s="224"/>
       <c r="C971" s="225"/>
@@ -34960,7 +34960,7 @@
       <c r="K971" s="7"/>
       <c r="L971" s="1"/>
     </row>
-    <row r="972" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A972" s="212"/>
       <c r="B972" s="227"/>
       <c r="C972" s="229"/>
@@ -34978,7 +34978,7 @@
       <c r="K972" s="3"/>
       <c r="L972" s="1"/>
     </row>
-    <row r="973" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A973" s="212"/>
       <c r="B973" s="224"/>
       <c r="C973" s="225"/>
@@ -34996,7 +34996,7 @@
       <c r="K973" s="7"/>
       <c r="L973" s="1"/>
     </row>
-    <row r="974" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A974" s="212"/>
       <c r="B974" s="228"/>
       <c r="C974" s="230"/>
@@ -35014,7 +35014,7 @@
       <c r="K974" s="7"/>
       <c r="L974" s="1"/>
     </row>
-    <row r="975" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A975" s="212"/>
       <c r="B975" s="224"/>
       <c r="C975" s="225"/>
@@ -35032,7 +35032,7 @@
       <c r="K975" s="7"/>
       <c r="L975" s="1"/>
     </row>
-    <row r="976" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A976" s="212"/>
       <c r="B976" s="224"/>
       <c r="C976" s="225"/>
@@ -35050,7 +35050,7 @@
       <c r="K976" s="7"/>
       <c r="L976" s="1"/>
     </row>
-    <row r="977" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A977" s="212"/>
       <c r="B977" s="224"/>
       <c r="C977" s="225"/>
@@ -35068,7 +35068,7 @@
       <c r="K977" s="7"/>
       <c r="L977" s="1"/>
     </row>
-    <row r="978" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A978" s="212"/>
       <c r="B978" s="224"/>
       <c r="C978" s="225"/>
@@ -35086,7 +35086,7 @@
       <c r="K978" s="7"/>
       <c r="L978" s="1"/>
     </row>
-    <row r="979" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A979" s="212"/>
       <c r="B979" s="224"/>
       <c r="C979" s="225"/>
@@ -35104,7 +35104,7 @@
       <c r="K979" s="7"/>
       <c r="L979" s="1"/>
     </row>
-    <row r="980" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A980" s="212"/>
       <c r="B980" s="224"/>
       <c r="C980" s="225"/>
@@ -35122,7 +35122,7 @@
       <c r="K980" s="7"/>
       <c r="L980" s="1"/>
     </row>
-    <row r="981" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A981" s="212"/>
       <c r="B981" s="224"/>
       <c r="C981" s="225"/>
@@ -35140,7 +35140,7 @@
       <c r="K981" s="7"/>
       <c r="L981" s="1"/>
     </row>
-    <row r="982" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B982" s="227"/>
       <c r="C982" s="229"/>
       <c r="D982" s="231"/>
@@ -35157,7 +35157,7 @@
       <c r="K982" s="3"/>
       <c r="L982" s="1"/>
     </row>
-    <row r="983" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B983" s="227"/>
       <c r="C983" s="229"/>
       <c r="D983" s="231"/>
@@ -35174,7 +35174,7 @@
       <c r="K983" s="3"/>
       <c r="L983" s="1"/>
     </row>
-    <row r="984" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B984" s="227"/>
       <c r="C984" s="229"/>
       <c r="D984" s="231"/>
@@ -35191,7 +35191,7 @@
       <c r="K984" s="3"/>
       <c r="L984" s="1"/>
     </row>
-    <row r="985" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A985" s="212"/>
       <c r="B985" s="224"/>
       <c r="C985" s="225"/>
@@ -35209,7 +35209,7 @@
       <c r="K985" s="7"/>
       <c r="L985" s="1"/>
     </row>
-    <row r="986" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A986" s="212"/>
       <c r="B986" s="224"/>
       <c r="C986" s="225"/>
@@ -35227,7 +35227,7 @@
       <c r="K986" s="7"/>
       <c r="L986" s="1"/>
     </row>
-    <row r="987" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B987" s="227"/>
       <c r="C987" s="229"/>
       <c r="D987" s="231"/>
@@ -35244,7 +35244,7 @@
       <c r="K987" s="3"/>
       <c r="L987" s="1"/>
     </row>
-    <row r="988" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A988" s="212"/>
       <c r="B988" s="224"/>
       <c r="C988" s="225"/>
@@ -35262,7 +35262,7 @@
       <c r="K988" s="7"/>
       <c r="L988" s="1"/>
     </row>
-    <row r="989" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="989" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A989" s="212"/>
       <c r="B989" s="224"/>
       <c r="C989" s="225"/>
@@ -35280,7 +35280,7 @@
       <c r="K989" s="6"/>
       <c r="L989" s="1"/>
     </row>
-    <row r="990" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B990" s="227"/>
       <c r="C990" s="229"/>
       <c r="D990" s="231"/>
@@ -35297,7 +35297,7 @@
       <c r="K990" s="3"/>
       <c r="L990" s="1"/>
     </row>
-    <row r="991" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B991" s="227"/>
       <c r="C991" s="229"/>
       <c r="D991" s="231"/>
@@ -35314,7 +35314,7 @@
       <c r="K991" s="3"/>
       <c r="L991" s="1"/>
     </row>
-    <row r="992" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A992" s="212"/>
       <c r="B992" s="224"/>
       <c r="C992" s="225"/>
@@ -35332,7 +35332,7 @@
       <c r="K992" s="7"/>
       <c r="L992" s="1"/>
     </row>
-    <row r="993" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="993" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A993" s="212"/>
       <c r="B993" s="224"/>
       <c r="C993" s="225"/>
@@ -35350,7 +35350,7 @@
       <c r="K993" s="7"/>
       <c r="L993" s="1"/>
     </row>
-    <row r="994" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="994" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A994" s="212"/>
       <c r="B994" s="224"/>
       <c r="C994" s="225"/>
@@ -35368,7 +35368,7 @@
       <c r="K994" s="6"/>
       <c r="L994" s="1"/>
     </row>
-    <row r="995" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A995" s="212"/>
       <c r="B995" s="224"/>
       <c r="C995" s="225"/>
@@ -35386,7 +35386,7 @@
       <c r="K995" s="6"/>
       <c r="L995" s="1"/>
     </row>
-    <row r="996" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A996" s="212"/>
       <c r="B996" s="224"/>
       <c r="C996" s="225"/>
@@ -35404,7 +35404,7 @@
       <c r="K996" s="6"/>
       <c r="L996" s="1"/>
     </row>
-    <row r="997" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="997" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A997" s="212"/>
       <c r="B997" s="224"/>
       <c r="C997" s="225"/>
@@ -35422,7 +35422,7 @@
       <c r="K997" s="6"/>
       <c r="L997" s="1"/>
     </row>
-    <row r="998" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A998" s="212"/>
       <c r="B998" s="224"/>
       <c r="C998" s="225"/>
@@ -35440,7 +35440,7 @@
       <c r="K998" s="6"/>
       <c r="L998" s="1"/>
     </row>
-    <row r="999" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="999" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A999" s="212"/>
       <c r="B999" s="224"/>
       <c r="C999" s="225"/>
@@ -35458,7 +35458,7 @@
       <c r="K999" s="6"/>
       <c r="L999" s="1"/>
     </row>
-    <row r="1000" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="212"/>
       <c r="B1000" s="224"/>
       <c r="C1000" s="225"/>
@@ -35476,7 +35476,7 @@
       <c r="K1000" s="6"/>
       <c r="L1000" s="1"/>
     </row>
-    <row r="1001" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="212"/>
       <c r="B1001" s="224"/>
       <c r="C1001" s="225"/>
@@ -35494,7 +35494,7 @@
       <c r="K1001" s="6"/>
       <c r="L1001" s="1"/>
     </row>
-    <row r="1002" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1002" s="212"/>
       <c r="B1002" s="224"/>
       <c r="C1002" s="225"/>
@@ -35512,7 +35512,7 @@
       <c r="K1002" s="6"/>
       <c r="L1002" s="1"/>
     </row>
-    <row r="1003" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1003" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1003" s="212"/>
       <c r="B1003" s="224"/>
       <c r="C1003" s="225"/>
@@ -35530,7 +35530,7 @@
       <c r="K1003" s="7"/>
       <c r="L1003" s="1"/>
     </row>
-    <row r="1004" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1004" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1004" s="212"/>
       <c r="B1004" s="224"/>
       <c r="C1004" s="225"/>
@@ -35548,7 +35548,7 @@
       <c r="K1004" s="7"/>
       <c r="L1004" s="1"/>
     </row>
-    <row r="1005" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1005" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1005" s="212"/>
       <c r="B1005" s="224"/>
       <c r="C1005" s="225"/>
@@ -35566,7 +35566,7 @@
       <c r="K1005" s="7"/>
       <c r="L1005" s="1"/>
     </row>
-    <row r="1006" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1006" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1006" s="212"/>
       <c r="B1006" s="224"/>
       <c r="C1006" s="225"/>
@@ -35584,7 +35584,7 @@
       <c r="K1006" s="7"/>
       <c r="L1006" s="1"/>
     </row>
-    <row r="1007" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1007" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1007" s="212"/>
       <c r="B1007" s="224"/>
       <c r="C1007" s="225"/>
@@ -35602,7 +35602,7 @@
       <c r="K1007" s="7"/>
       <c r="L1007" s="1"/>
     </row>
-    <row r="1008" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1008" s="212"/>
       <c r="B1008" s="224"/>
       <c r="C1008" s="225"/>
@@ -35620,7 +35620,7 @@
       <c r="K1008" s="7"/>
       <c r="L1008" s="1"/>
     </row>
-    <row r="1009" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1009" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1009" s="212"/>
       <c r="B1009" s="224"/>
       <c r="C1009" s="225"/>
@@ -35638,7 +35638,7 @@
       <c r="K1009" s="7"/>
       <c r="L1009" s="1"/>
     </row>
-    <row r="1010" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1010" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1010" s="212"/>
       <c r="B1010" s="224"/>
       <c r="C1010" s="225"/>
@@ -35656,7 +35656,7 @@
       <c r="K1010" s="7"/>
       <c r="L1010" s="1"/>
     </row>
-    <row r="1011" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1011" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1011" s="212"/>
       <c r="B1011" s="224"/>
       <c r="C1011" s="225"/>
@@ -35674,7 +35674,7 @@
       <c r="K1011" s="7"/>
       <c r="L1011" s="1"/>
     </row>
-    <row r="1012" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1012" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1012" s="212"/>
       <c r="B1012" s="224"/>
       <c r="C1012" s="225"/>
@@ -35692,7 +35692,7 @@
       <c r="K1012" s="7"/>
       <c r="L1012" s="1"/>
     </row>
-    <row r="1013" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1013" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1013" s="212"/>
       <c r="B1013" s="224"/>
       <c r="C1013" s="225"/>
@@ -35710,7 +35710,7 @@
       <c r="K1013" s="7"/>
       <c r="L1013" s="1"/>
     </row>
-    <row r="1014" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1014" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1014" s="212"/>
       <c r="B1014" s="224"/>
       <c r="C1014" s="225"/>
@@ -35728,7 +35728,7 @@
       <c r="K1014" s="7"/>
       <c r="L1014" s="1"/>
     </row>
-    <row r="1015" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1015" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1015" s="212"/>
       <c r="B1015" s="224"/>
       <c r="C1015" s="225"/>
@@ -35746,7 +35746,7 @@
       <c r="K1015" s="7"/>
       <c r="L1015" s="1"/>
     </row>
-    <row r="1016" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1016" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1016" s="212"/>
       <c r="B1016" s="224"/>
       <c r="C1016" s="225"/>
@@ -35764,7 +35764,7 @@
       <c r="K1016" s="7"/>
       <c r="L1016" s="1"/>
     </row>
-    <row r="1017" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1017" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1017" s="212"/>
       <c r="B1017" s="224"/>
       <c r="C1017" s="225"/>
@@ -35782,7 +35782,7 @@
       <c r="K1017" s="7"/>
       <c r="L1017" s="1"/>
     </row>
-    <row r="1018" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1018" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1018" s="212"/>
       <c r="B1018" s="224"/>
       <c r="C1018" s="225"/>
@@ -35800,7 +35800,7 @@
       <c r="K1018" s="7"/>
       <c r="L1018" s="1"/>
     </row>
-    <row r="1019" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1019" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1019" s="212"/>
       <c r="B1019" s="224"/>
       <c r="C1019" s="225"/>
@@ -35818,7 +35818,7 @@
       <c r="K1019" s="7"/>
       <c r="L1019" s="1"/>
     </row>
-    <row r="1020" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1020" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1020" s="212"/>
       <c r="B1020" s="224"/>
       <c r="C1020" s="225"/>
@@ -35836,7 +35836,7 @@
       <c r="K1020" s="7"/>
       <c r="L1020" s="1"/>
     </row>
-    <row r="1021" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1021" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1021" s="212"/>
       <c r="B1021" s="224"/>
       <c r="C1021" s="225"/>
@@ -35854,7 +35854,7 @@
       <c r="K1021" s="7"/>
       <c r="L1021" s="1"/>
     </row>
-    <row r="1022" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1022" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1022" s="212"/>
       <c r="B1022" s="224"/>
       <c r="C1022" s="225"/>
@@ -35872,7 +35872,7 @@
       <c r="K1022" s="7"/>
       <c r="L1022" s="1"/>
     </row>
-    <row r="1023" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1023" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1023" s="212"/>
       <c r="B1023" s="224"/>
       <c r="C1023" s="225"/>
@@ -35890,7 +35890,7 @@
       <c r="K1023" s="7"/>
       <c r="L1023" s="1"/>
     </row>
-    <row r="1024" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1024" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1024" s="212"/>
       <c r="B1024" s="224"/>
       <c r="C1024" s="225"/>
@@ -35908,7 +35908,7 @@
       <c r="K1024" s="7"/>
       <c r="L1024" s="1"/>
     </row>
-    <row r="1025" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1025" s="212"/>
       <c r="B1025" s="224"/>
       <c r="C1025" s="225"/>
@@ -35926,7 +35926,7 @@
       <c r="K1025" s="7"/>
       <c r="L1025" s="1"/>
     </row>
-    <row r="1026" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1026" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1026" s="227"/>
       <c r="C1026" s="229"/>
       <c r="D1026" s="231"/>
@@ -35943,7 +35943,7 @@
       <c r="K1026" s="3"/>
       <c r="L1026" s="1"/>
     </row>
-    <row r="1027" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1027" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1027" s="227"/>
       <c r="C1027" s="229"/>
       <c r="D1027" s="231"/>
@@ -35960,7 +35960,7 @@
       <c r="K1027" s="3"/>
       <c r="L1027" s="1"/>
     </row>
-    <row r="1028" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1028" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1028" s="227"/>
       <c r="C1028" s="229"/>
       <c r="D1028" s="231"/>
@@ -35977,7 +35977,7 @@
       <c r="K1028" s="3"/>
       <c r="L1028" s="1"/>
     </row>
-    <row r="1029" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1029" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1029" s="227"/>
       <c r="C1029" s="229"/>
       <c r="D1029" s="231"/>
@@ -35994,7 +35994,7 @@
       <c r="K1029" s="3"/>
       <c r="L1029" s="1"/>
     </row>
-    <row r="1030" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1030" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1030" s="212"/>
       <c r="B1030" s="224"/>
       <c r="C1030" s="225"/>
@@ -36012,7 +36012,7 @@
       <c r="K1030" s="8"/>
       <c r="L1030" s="1"/>
     </row>
-    <row r="1031" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1031" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1031" s="227"/>
       <c r="C1031" s="229"/>
       <c r="D1031" s="231"/>
@@ -36029,7 +36029,7 @@
       <c r="K1031" s="3"/>
       <c r="L1031" s="1"/>
     </row>
-    <row r="1032" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1032" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1032" s="212"/>
       <c r="B1032" s="224"/>
       <c r="C1032" s="225"/>
@@ -36047,7 +36047,7 @@
       <c r="K1032" s="7"/>
       <c r="L1032" s="1"/>
     </row>
-    <row r="1033" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1033" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1033" s="227"/>
       <c r="C1033" s="229"/>
       <c r="D1033" s="231"/>
@@ -36064,7 +36064,7 @@
       <c r="K1033" s="3"/>
       <c r="L1033" s="1"/>
     </row>
-    <row r="1034" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1034" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1034" s="212"/>
       <c r="B1034" s="224"/>
       <c r="C1034" s="225"/>
@@ -36082,7 +36082,7 @@
       <c r="K1034" s="7"/>
       <c r="L1034" s="1"/>
     </row>
-    <row r="1035" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1035" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1035" s="227"/>
       <c r="C1035" s="229"/>
       <c r="D1035" s="231"/>
@@ -36099,7 +36099,7 @@
       <c r="K1035" s="3"/>
       <c r="L1035" s="1"/>
     </row>
-    <row r="1036" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1036" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1036" s="212"/>
       <c r="B1036" s="224"/>
       <c r="C1036" s="225"/>
@@ -36117,7 +36117,7 @@
       <c r="K1036" s="7"/>
       <c r="L1036" s="1"/>
     </row>
-    <row r="1037" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1037" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1037" s="224"/>
       <c r="C1037" s="225"/>
       <c r="D1037" s="184"/>
@@ -36134,7 +36134,7 @@
       <c r="K1037" s="7"/>
       <c r="L1037" s="1"/>
     </row>
-    <row r="1038" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1038" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1038" s="212"/>
       <c r="B1038" s="224"/>
       <c r="C1038" s="225"/>
@@ -36152,7 +36152,7 @@
       <c r="K1038" s="7"/>
       <c r="L1038" s="1"/>
     </row>
-    <row r="1039" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1039" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1039" s="227"/>
       <c r="C1039" s="229"/>
       <c r="D1039" s="231"/>
@@ -36169,7 +36169,7 @@
       <c r="K1039" s="3"/>
       <c r="L1039" s="1"/>
     </row>
-    <row r="1040" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1040" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1040" s="212"/>
       <c r="B1040" s="224"/>
       <c r="C1040" s="225"/>
@@ -36187,7 +36187,7 @@
       <c r="K1040" s="7"/>
       <c r="L1040" s="1"/>
     </row>
-    <row r="1041" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1041" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1041" s="227"/>
       <c r="C1041" s="229"/>
       <c r="D1041" s="231"/>
@@ -36204,7 +36204,7 @@
       <c r="K1041" s="3"/>
       <c r="L1041" s="1"/>
     </row>
-    <row r="1042" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1042" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1042" s="212"/>
       <c r="B1042" s="224"/>
       <c r="C1042" s="225"/>
@@ -36222,7 +36222,7 @@
       <c r="K1042" s="7"/>
       <c r="L1042" s="1"/>
     </row>
-    <row r="1043" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1043" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1043" s="227"/>
       <c r="C1043" s="229"/>
       <c r="D1043" s="231"/>
@@ -36239,7 +36239,7 @@
       <c r="K1043" s="3"/>
       <c r="L1043" s="1"/>
     </row>
-    <row r="1044" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1044" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1044" s="212"/>
       <c r="B1044" s="224"/>
       <c r="C1044" s="225"/>
@@ -36257,7 +36257,7 @@
       <c r="K1044" s="7"/>
       <c r="L1044" s="1"/>
     </row>
-    <row r="1045" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1045" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1045" s="227"/>
       <c r="C1045" s="229"/>
       <c r="D1045" s="231"/>
@@ -36274,7 +36274,7 @@
       <c r="K1045" s="3"/>
       <c r="L1045" s="1"/>
     </row>
-    <row r="1046" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1046" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1046" s="212"/>
       <c r="B1046" s="224"/>
       <c r="C1046" s="225"/>
@@ -36292,7 +36292,7 @@
       <c r="K1046" s="7"/>
       <c r="L1046" s="1"/>
     </row>
-    <row r="1047" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1047" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1047" s="227"/>
       <c r="C1047" s="229"/>
       <c r="D1047" s="231"/>
@@ -36309,7 +36309,7 @@
       <c r="K1047" s="3"/>
       <c r="L1047" s="1"/>
     </row>
-    <row r="1048" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1048" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1048" s="212"/>
       <c r="B1048" s="228"/>
       <c r="C1048" s="230"/>
@@ -36327,7 +36327,7 @@
       <c r="K1048" s="7"/>
       <c r="L1048" s="1"/>
     </row>
-    <row r="1049" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1049" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1049" s="227"/>
       <c r="C1049" s="229"/>
       <c r="D1049" s="231"/>
@@ -36344,7 +36344,7 @@
       <c r="K1049" s="3"/>
       <c r="L1049" s="1"/>
     </row>
-    <row r="1050" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1050" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1050" s="212"/>
       <c r="B1050" s="228"/>
       <c r="C1050" s="230"/>
@@ -36362,7 +36362,7 @@
       <c r="K1050" s="7"/>
       <c r="L1050" s="1"/>
     </row>
-    <row r="1051" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1051" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1051" s="227"/>
       <c r="C1051" s="229"/>
       <c r="D1051" s="231"/>
@@ -36379,7 +36379,7 @@
       <c r="K1051" s="3"/>
       <c r="L1051" s="1"/>
     </row>
-    <row r="1052" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1052" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1052" s="212"/>
       <c r="B1052" s="224"/>
       <c r="C1052" s="225"/>
@@ -36397,7 +36397,7 @@
       <c r="K1052" s="7"/>
       <c r="L1052" s="1"/>
     </row>
-    <row r="1053" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1053" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1053" s="227"/>
       <c r="C1053" s="229"/>
       <c r="D1053" s="231"/>
@@ -36414,7 +36414,7 @@
       <c r="K1053" s="3"/>
       <c r="L1053" s="1"/>
     </row>
-    <row r="1054" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1054" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1054" s="212"/>
       <c r="B1054" s="224"/>
       <c r="C1054" s="225"/>
@@ -36432,7 +36432,7 @@
       <c r="K1054" s="7"/>
       <c r="L1054" s="1"/>
     </row>
-    <row r="1055" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1055" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1055" s="227"/>
       <c r="C1055" s="229"/>
       <c r="D1055" s="231"/>
@@ -36449,7 +36449,7 @@
       <c r="K1055" s="3"/>
       <c r="L1055" s="1"/>
     </row>
-    <row r="1056" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1056" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1056" s="212"/>
       <c r="B1056" s="224"/>
       <c r="C1056" s="225"/>
@@ -36467,7 +36467,7 @@
       <c r="K1056" s="7"/>
       <c r="L1056" s="1"/>
     </row>
-    <row r="1057" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1057" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1057" s="227"/>
       <c r="C1057" s="229"/>
       <c r="D1057" s="231"/>
@@ -36484,7 +36484,7 @@
       <c r="K1057" s="3"/>
       <c r="L1057" s="1"/>
     </row>
-    <row r="1058" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1058" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1058" s="212"/>
       <c r="B1058" s="224"/>
       <c r="C1058" s="225"/>
@@ -36502,7 +36502,7 @@
       <c r="K1058" s="7"/>
       <c r="L1058" s="1"/>
     </row>
-    <row r="1059" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1059" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1059" s="212"/>
       <c r="B1059" s="224"/>
       <c r="C1059" s="225"/>
@@ -36520,7 +36520,7 @@
       <c r="K1059" s="7"/>
       <c r="L1059" s="1"/>
     </row>
-    <row r="1060" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1060" s="212"/>
       <c r="B1060" s="224"/>
       <c r="C1060" s="225"/>
@@ -36538,7 +36538,7 @@
       <c r="K1060" s="7"/>
       <c r="L1060" s="1"/>
     </row>
-    <row r="1061" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1061" s="212"/>
       <c r="B1061" s="224"/>
       <c r="C1061" s="225"/>
@@ -36556,7 +36556,7 @@
       <c r="K1061" s="7"/>
       <c r="L1061" s="1"/>
     </row>
-    <row r="1062" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1062" s="212"/>
       <c r="B1062" s="224"/>
       <c r="C1062" s="225"/>
@@ -36574,7 +36574,7 @@
       <c r="K1062" s="7"/>
       <c r="L1062" s="1"/>
     </row>
-    <row r="1063" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1063" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1063" s="227"/>
       <c r="C1063" s="229"/>
       <c r="D1063" s="231"/>
@@ -36591,7 +36591,7 @@
       <c r="K1063" s="3"/>
       <c r="L1063" s="1"/>
     </row>
-    <row r="1064" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1064" s="227"/>
       <c r="C1064" s="229"/>
       <c r="D1064" s="231"/>
@@ -36608,7 +36608,7 @@
       <c r="K1064" s="3"/>
       <c r="L1064" s="1"/>
     </row>
-    <row r="1065" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1065" s="212"/>
       <c r="B1065" s="224"/>
       <c r="C1065" s="225"/>
@@ -36626,7 +36626,7 @@
       <c r="K1065" s="7"/>
       <c r="L1065" s="1"/>
     </row>
-    <row r="1066" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1066" s="212"/>
       <c r="B1066" s="224"/>
       <c r="C1066" s="225"/>
@@ -36644,7 +36644,7 @@
       <c r="K1066" s="7"/>
       <c r="L1066" s="1"/>
     </row>
-    <row r="1067" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1067" s="212"/>
       <c r="B1067" s="224"/>
       <c r="C1067" s="225"/>
@@ -36662,7 +36662,7 @@
       <c r="K1067" s="6"/>
       <c r="L1067" s="1"/>
     </row>
-    <row r="1068" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1068" s="212"/>
       <c r="B1068" s="224"/>
       <c r="C1068" s="225"/>
@@ -36680,7 +36680,7 @@
       <c r="K1068" s="6"/>
       <c r="L1068" s="1"/>
     </row>
-    <row r="1069" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1069" s="212"/>
       <c r="B1069" s="224"/>
       <c r="C1069" s="225"/>
@@ -36698,7 +36698,7 @@
       <c r="K1069" s="7"/>
       <c r="L1069" s="1"/>
     </row>
-    <row r="1070" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1070" s="212" t="s">
         <v>930</v>
       </c>
@@ -36716,7 +36716,7 @@
       <c r="K1070" s="7"/>
       <c r="L1070" s="1"/>
     </row>
-    <row r="1071" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1071" s="212"/>
       <c r="B1071" s="224"/>
       <c r="C1071" s="225"/>
@@ -36730,7 +36730,7 @@
       <c r="K1071" s="7"/>
       <c r="L1071" s="1"/>
     </row>
-    <row r="1072" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1072" s="212"/>
       <c r="B1072" s="224"/>
       <c r="C1072" s="225"/>
@@ -36744,7 +36744,7 @@
       <c r="K1072" s="7"/>
       <c r="L1072" s="1"/>
     </row>
-    <row r="1073" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1073" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1073" s="212" t="s">
         <v>953</v>
       </c>
@@ -36762,7 +36762,7 @@
       <c r="K1073" s="8"/>
       <c r="L1073" s="1"/>
     </row>
-    <row r="1074" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1074" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1074" s="212" t="s">
         <v>891</v>
       </c>
@@ -36780,7 +36780,7 @@
       <c r="K1074" s="7"/>
       <c r="L1074" s="1"/>
     </row>
-    <row r="1075" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1075" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1075" s="212" t="s">
         <v>964</v>
       </c>
@@ -36798,7 +36798,7 @@
       <c r="K1075" s="7"/>
       <c r="L1075" s="1"/>
     </row>
-    <row r="1076" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1076" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1076" s="212" t="s">
         <v>895</v>
       </c>
@@ -36816,7 +36816,7 @@
       <c r="K1076" s="7"/>
       <c r="L1076" s="1"/>
     </row>
-    <row r="1077" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1077" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1077" s="212" t="s">
         <v>895</v>
       </c>
@@ -36834,7 +36834,7 @@
       <c r="K1077" s="8"/>
       <c r="L1077" s="1"/>
     </row>
-    <row r="1078" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1078" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1078" s="212" t="s">
         <v>964</v>
       </c>
@@ -36852,7 +36852,7 @@
       <c r="K1078" s="8"/>
       <c r="L1078" s="1"/>
     </row>
-    <row r="1079" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1079" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1079" s="212" t="s">
         <v>955</v>
       </c>
@@ -36870,7 +36870,7 @@
       <c r="K1079" s="8"/>
       <c r="L1079" s="1"/>
     </row>
-    <row r="1080" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1080" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1080" s="212" t="s">
         <v>968</v>
       </c>
@@ -36888,7 +36888,7 @@
       <c r="K1080" s="8"/>
       <c r="L1080" s="1"/>
     </row>
-    <row r="1081" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1081" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1081" s="212" t="s">
         <v>926</v>
       </c>
@@ -36906,7 +36906,7 @@
       <c r="K1081" s="8"/>
       <c r="L1081" s="1"/>
     </row>
-    <row r="1082" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1082" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1082" s="212"/>
       <c r="B1082" s="228"/>
       <c r="C1082" s="230"/>
@@ -36920,7 +36920,7 @@
       <c r="K1082" s="8"/>
       <c r="L1082" s="1"/>
     </row>
-    <row r="1083" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1083" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1083" s="212" t="s">
         <v>900</v>
       </c>
@@ -36938,7 +36938,7 @@
       <c r="K1083" s="8"/>
       <c r="L1083" s="1"/>
     </row>
-    <row r="1084" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1084" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1084" s="212" t="s">
         <v>954</v>
       </c>
@@ -36956,7 +36956,7 @@
       <c r="K1084" s="8"/>
       <c r="L1084" s="1"/>
     </row>
-    <row r="1085" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1085" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1085" s="212" t="s">
         <v>895</v>
       </c>
@@ -36974,7 +36974,7 @@
       <c r="K1085" s="8"/>
       <c r="L1085" s="1"/>
     </row>
-    <row r="1086" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1086" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1086" s="212" t="s">
         <v>884</v>
       </c>
@@ -36992,7 +36992,7 @@
       <c r="K1086" s="8"/>
       <c r="L1086" s="1"/>
     </row>
-    <row r="1087" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1087" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1087" s="212" t="s">
         <v>884</v>
       </c>
@@ -37010,7 +37010,7 @@
       <c r="K1087" s="8"/>
       <c r="L1087" s="1"/>
     </row>
-    <row r="1088" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1088" spans="1:12" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1088" s="212" t="s">
         <v>884</v>
       </c>
@@ -37028,7 +37028,7 @@
       <c r="K1088" s="8"/>
       <c r="L1088" s="1"/>
     </row>
-    <row r="1089" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1089" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1089" s="212" t="s">
         <v>930</v>
       </c>
@@ -37046,7 +37046,7 @@
       <c r="K1089" s="8"/>
       <c r="L1089" s="1"/>
     </row>
-    <row r="1090" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1090" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1090" s="212"/>
       <c r="B1090" s="224"/>
       <c r="C1090" s="225"/>
@@ -37060,7 +37060,7 @@
       <c r="K1090" s="7"/>
       <c r="L1090" s="1"/>
     </row>
-    <row r="1091" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1091" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1091" s="212"/>
       <c r="B1091" s="224"/>
       <c r="C1091" s="225"/>
@@ -37074,7 +37074,7 @@
       <c r="K1091" s="7"/>
       <c r="L1091" s="1"/>
     </row>
-    <row r="1092" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1092" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1092" s="212" t="s">
         <v>895</v>
       </c>
@@ -37092,7 +37092,7 @@
       <c r="K1092" s="8"/>
       <c r="L1092" s="1"/>
     </row>
-    <row r="1093" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1093" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1093" s="212" t="s">
         <v>927</v>
       </c>
@@ -37110,7 +37110,7 @@
       <c r="K1093" s="8"/>
       <c r="L1093" s="1"/>
     </row>
-    <row r="1094" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1094" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1094" s="212" t="s">
         <v>877</v>
       </c>
@@ -37128,7 +37128,7 @@
       <c r="K1094" s="7"/>
       <c r="L1094" s="1"/>
     </row>
-    <row r="1095" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1095" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1095" s="212"/>
       <c r="B1095" s="224"/>
       <c r="C1095" s="225"/>
@@ -37142,7 +37142,7 @@
       <c r="K1095" s="7"/>
       <c r="L1095" s="1"/>
     </row>
-    <row r="1096" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1096" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1096" s="212" t="s">
         <v>952</v>
       </c>
@@ -37160,7 +37160,7 @@
       <c r="K1096" s="7"/>
       <c r="L1096" s="1"/>
     </row>
-    <row r="1097" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1097" spans="1:13" ht="27.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1097" s="212" t="s">
         <v>937</v>
       </c>
@@ -40336,11 +40336,13 @@
     <row r="2120" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2121" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2122" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2123" ht="15" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="2123" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <autoFilter ref="A1:K1097" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters blank="1"/>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1487"/>
+      </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K1097">
       <sortCondition ref="G1:G1097"/>
@@ -41413,8 +41415,8 @@
         <v>73</v>
       </c>
       <c r="E37" s="154"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
+      <c r="F37" s="245"/>
+      <c r="G37" s="245"/>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -41428,8 +41430,8 @@
         <v>1092058605</v>
       </c>
       <c r="E38" s="154"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="242"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="243"/>
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -41443,8 +41445,8 @@
         <v>7</v>
       </c>
       <c r="E39" s="156"/>
-      <c r="F39" s="243"/>
-      <c r="G39" s="243"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="244"/>
       <c r="K39" s="15"/>
     </row>
     <row r="40" spans="1:11" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
